--- a/Métriques discriminantes/Tableau métriques/moyenne/2020_2021/Stats Bomb/moyenne_metriques.xlsx
+++ b/Métriques discriminantes/Tableau métriques/moyenne/2020_2021/Stats Bomb/moyenne_metriques.xlsx
@@ -483,35 +483,35 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_shot_pg</t>
+          <t>team_season_gd</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1058720392501547</v>
+        <v>24.2</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02019051932429006</v>
+        <v>-8.066666666666666</v>
       </c>
       <c r="D2" t="n">
-        <v>424.37</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1181498478788354</v>
+        <v>9.859006035092989</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1285824745035151</v>
+        <v>11.84704102096304</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.03802533503621817</v>
+        <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.2345001478427769</v>
+        <v>-24</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2561327568613566</v>
+        <v>36</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2477358597227269</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -521,214 +521,214 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.6849178</v>
+        <v>18.24228334</v>
       </c>
       <c r="C3" t="n">
-        <v>-6.561639493333333</v>
+        <v>-6.080761679999999</v>
       </c>
       <c r="D3" t="n">
         <v>400</v>
       </c>
       <c r="E3" t="n">
-        <v>9.123404652556507</v>
+        <v>9.460712712948318</v>
       </c>
       <c r="F3" t="n">
-        <v>9.79145615864034</v>
+        <v>9.562935319273759</v>
       </c>
       <c r="G3" t="n">
-        <v>5.605961</v>
+        <v>2.9933357</v>
       </c>
       <c r="H3" t="n">
-        <v>-25.776934</v>
+        <v>-25.686272</v>
       </c>
       <c r="I3" t="n">
-        <v>30.834589</v>
+        <v>28.64181</v>
       </c>
       <c r="J3" t="n">
-        <v>10.805668</v>
+        <v>8.925943</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>team_season_gd</t>
+          <t>team_season_np_xgd_pg</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24.2</v>
+        <v>0.4241851432351005</v>
       </c>
       <c r="C4" t="n">
-        <v>-8.066666666666666</v>
+        <v>-0.1467975858769109</v>
       </c>
       <c r="D4" t="n">
-        <v>400</v>
+        <v>388.96</v>
       </c>
       <c r="E4" t="n">
-        <v>9.859006035092989</v>
+        <v>0.2887613807818696</v>
       </c>
       <c r="F4" t="n">
-        <v>11.84704102096304</v>
+        <v>0.2409746907917021</v>
       </c>
       <c r="G4" t="n">
-        <v>14</v>
+        <v>0.07424590326845645</v>
       </c>
       <c r="H4" t="n">
-        <v>-24</v>
+        <v>-0.6942236201988684</v>
       </c>
       <c r="I4" t="n">
-        <v>36</v>
+        <v>0.8568239635542819</v>
       </c>
       <c r="J4" t="n">
-        <v>21</v>
+        <v>0.2555116783631475</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_xgd_pg</t>
+          <t>team_season_xgd_pg</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4614868034691865</v>
+        <v>0.4767326742426747</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1600300710928367</v>
+        <v>-0.1654635547698219</v>
       </c>
       <c r="D5" t="n">
-        <v>388.38</v>
+        <v>388.12</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2887968663451391</v>
+        <v>0.2504162982893599</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2510899120114714</v>
+        <v>0.2582335357241119</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1366240136325359</v>
+        <v>0.07483339905738831</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.6954035469003625</v>
+        <v>-0.6942236177824639</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9114364628729067</v>
+        <v>0.7537318460251156</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3055965563184337</v>
+        <v>0.2348932616020504</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>team_season_xgd_pg</t>
+          <t>team_season_np_gd_pg</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5139019250220213</v>
+        <v>0.5417611336032389</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1786479432527367</v>
+        <v>-0.1886755176228861</v>
       </c>
       <c r="D6" t="n">
-        <v>387.66</v>
+        <v>387.14</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2430184383993702</v>
+        <v>0.354491297918056</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2644009813199034</v>
+        <v>0.3343053274594137</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1401490248739719</v>
+        <v>0.225</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.6966738124956956</v>
+        <v>-0.6486486486486487</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8114364468737653</v>
+        <v>1.105263157894737</v>
       </c>
       <c r="J6" t="n">
-        <v>0.28435969274295</v>
+        <v>0.6578947368421053</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_gd_pg</t>
+          <t>team_season_gd_pg</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5417611336032389</v>
+        <v>0.6285762483130904</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1886755176228861</v>
+        <v>-0.2196169854064591</v>
       </c>
       <c r="D7" t="n">
-        <v>387.14</v>
+        <v>386.21</v>
       </c>
       <c r="E7" t="n">
-        <v>0.354491297918056</v>
+        <v>0.2600282450513906</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3343053274594137</v>
+        <v>0.3176881770557792</v>
       </c>
       <c r="G7" t="n">
-        <v>0.225</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="H7" t="n">
         <v>-0.6486486486486487</v>
       </c>
       <c r="I7" t="n">
-        <v>1.105263157894737</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6578947368421053</v>
+        <v>0.5526315789473685</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>team_season_gd_pg</t>
+          <t>team_season_throw_in_goal_ratio_conceded</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6285762483130904</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2196169854064591</v>
+        <v>0.000468017478556094</v>
       </c>
       <c r="D8" t="n">
-        <v>386.21</v>
+        <v>-100</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2600282450513906</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3176881770557792</v>
+        <v>0.0007351763508013481</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3684210526315789</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.6486486486486487</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9473684210526315</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5526315789473685</v>
+        <v>0.0022883295194508</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>team_season_throw_in_goal_ratio_conceded</t>
+          <t>team_season_goals_from_throw_ins_conceded_pg</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.000468017478556094</v>
+        <v>0.01086086086086086</v>
       </c>
       <c r="D9" t="n">
         <v>-100</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0007351763508013481</v>
+        <v>0.01714528629124898</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -749,109 +749,109 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0022883295194508</v>
+        <v>0.05405405405405406</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>team_season_goals_from_throw_ins_conceded_pg</t>
+          <t>team_season_obv_gk_pg</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>-0.03114118076430095</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01086086086086086</v>
+        <v>-0.1686193066338974</v>
       </c>
       <c r="D10" t="n">
-        <v>-100</v>
+        <v>81.53</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.1342937315917626</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01714528629124898</v>
+        <v>0.1087213900079429</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>-0.1878280078009185</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>-0.3731702047451917</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>0.110477967816405</v>
       </c>
       <c r="J10" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.01750862519992025</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_gk_pg</t>
+          <t>team_season_throw_in_xg_conceded_pg</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.007355619663963492</v>
+        <v>0.003314670568015351</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1424667319752059</v>
+        <v>0.009238518398437832</v>
       </c>
       <c r="D11" t="n">
-        <v>94.84</v>
+        <v>-64.12</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1307582714039567</v>
+        <v>0.003467649493327781</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1129851438129423</v>
+        <v>0.00998501695404329</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1551743774519612</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.3764677672491719</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1335724635670582</v>
+        <v>0.008880429558063809</v>
       </c>
       <c r="J11" t="n">
-        <v>0.02794511760830095</v>
+        <v>0.0308414062334074</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_shot_conceded_pg</t>
+          <t>team_season_xg_per_throw_in_conceded</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01841807932483582</v>
+        <v>0.0001496945176550234</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04960009958125229</v>
+        <v>0.000397658757161297</v>
       </c>
       <c r="D12" t="n">
-        <v>-62.87</v>
+        <v>-62.36</v>
       </c>
       <c r="E12" t="n">
-        <v>0.08746428527276162</v>
+        <v>0.0001542062417425845</v>
       </c>
       <c r="F12" t="n">
-        <v>0.08415074150499954</v>
+        <v>0.000432603845217736</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1323659993512066</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.101920623130895</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.08378907006520492</v>
+        <v>0.000390574439532227</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2003096273463023</v>
+        <v>0.00128217091721095</v>
       </c>
     </row>
     <row r="13">
@@ -891,57 +891,57 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>team_season_throw_in_xg_conceded_pg</t>
+          <t>team_season_op_xg_pg</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.003689581702881859</v>
+        <v>0.9958352030591483</v>
       </c>
       <c r="C14" t="n">
-        <v>0.008692304156022918</v>
+        <v>0.675178209609799</v>
       </c>
       <c r="D14" t="n">
-        <v>-57.55</v>
+        <v>47.49</v>
       </c>
       <c r="E14" t="n">
-        <v>0.003954362773960786</v>
+        <v>0.1871065473932752</v>
       </c>
       <c r="F14" t="n">
-        <v>0.009944734350868848</v>
+        <v>0.126508673876367</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.771212999150157</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>0.4789952757592137</v>
       </c>
       <c r="I14" t="n">
-        <v>0.009428800230747769</v>
+        <v>1.283201029818309</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0302800721916798</v>
+        <v>0.9318375509036215</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_throw_in_conceded</t>
+          <t>team_season_own_goals_pg</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0001677072917322167</v>
+        <v>0.02091767881241565</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0003747197020581652</v>
+        <v>0.03960276065539223</v>
       </c>
       <c r="D15" t="n">
-        <v>-55.24</v>
+        <v>-47.18</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0001792310625035543</v>
+        <v>0.02197907891349842</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0004309952267996325</v>
+        <v>0.04568004056535555</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -950,202 +950,202 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.000414692624299615</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0012588345602657</v>
+        <v>0.1891891891891892</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_xg_pg</t>
+          <t>team_season_goals_from_corners_pg</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.04486939925248</v>
+        <v>0.1860188933873144</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7042222842326556</v>
+        <v>0.1272403982930299</v>
       </c>
       <c r="D16" t="n">
-        <v>48.37</v>
+        <v>46.19</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1927570051837591</v>
+        <v>0.05403342606253281</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1360140271699365</v>
+        <v>0.08198396926201994</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8228579564020038</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4947656363852926</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="I16" t="n">
-        <v>1.350895020522569</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9926892934661162</v>
+        <v>0.3157894736842105</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>team_season_own_goals_pg</t>
+          <t>team_season_goals_pg</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02091767881241565</v>
+        <v>1.555013495276653</v>
       </c>
       <c r="C17" t="n">
-        <v>0.03960276065539223</v>
+        <v>1.071186976450134</v>
       </c>
       <c r="D17" t="n">
-        <v>-47.18</v>
+        <v>45.17</v>
       </c>
       <c r="E17" t="n">
-        <v>0.02197907891349842</v>
+        <v>0.2280755949455512</v>
       </c>
       <c r="F17" t="n">
-        <v>0.04568004056535555</v>
+        <v>0.2300644290490273</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.325</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="I17" t="n">
-        <v>0.05263157894736842</v>
+        <v>1.897435897435897</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1891891891891892</v>
+        <v>1.68421052631579</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>team_season_goals_from_corners_pg</t>
+          <t>team_season_deep_completions_pg</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1860188933873144</v>
+        <v>3.22450742240216</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1272403982930299</v>
+        <v>2.257915810547389</v>
       </c>
       <c r="D18" t="n">
-        <v>46.19</v>
+        <v>42.81</v>
       </c>
       <c r="E18" t="n">
-        <v>0.05403342606253281</v>
+        <v>0.3302562575025487</v>
       </c>
       <c r="F18" t="n">
-        <v>0.08198396926201994</v>
+        <v>0.5345668127967753</v>
       </c>
       <c r="G18" t="n">
-        <v>0.131578947368421</v>
+        <v>2.743589743589744</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02631578947368421</v>
+        <v>1.611111111111111</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2564102564102564</v>
+        <v>3.552631578947369</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3157894736842105</v>
+        <v>3.842105263157895</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>team_season_goals_pg</t>
+          <t>team_season_second_yellow_cards_pg</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.555013495276653</v>
+        <v>0.03604588394062078</v>
       </c>
       <c r="C19" t="n">
-        <v>1.071186976450134</v>
+        <v>0.06293398661819714</v>
       </c>
       <c r="D19" t="n">
-        <v>45.17</v>
+        <v>-42.72</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2280755949455512</v>
+        <v>0.03487838520846701</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2300644290490273</v>
+        <v>0.03786692321596533</v>
       </c>
       <c r="G19" t="n">
-        <v>1.325</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8648648648648649</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.897435897435897</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="J19" t="n">
-        <v>1.68421052631579</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>team_season_deep_completions_pg</t>
+          <t>team_season_penalty_goals_pg</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.22450742240216</v>
+        <v>0.1754925775978408</v>
       </c>
       <c r="C20" t="n">
-        <v>2.257915810547389</v>
+        <v>0.1236315262631052</v>
       </c>
       <c r="D20" t="n">
-        <v>42.81</v>
+        <v>41.95</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3302562575025487</v>
+        <v>0.09335481871266059</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5345668127967753</v>
+        <v>0.06283827129326582</v>
       </c>
       <c r="G20" t="n">
-        <v>2.743589743589744</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="H20" t="n">
-        <v>1.611111111111111</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="I20" t="n">
-        <v>3.552631578947369</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="J20" t="n">
-        <v>3.842105263157895</v>
+        <v>0.2162162162162162</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>team_season_second_yellow_cards_pg</t>
+          <t>team_season_goals_from_throw_ins_pg</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.03604588394062078</v>
+        <v>0.005263157894736842</v>
       </c>
       <c r="C21" t="n">
-        <v>0.06293398661819714</v>
+        <v>0.008961593172119487</v>
       </c>
       <c r="D21" t="n">
-        <v>-42.72</v>
+        <v>-41.27</v>
       </c>
       <c r="E21" t="n">
-        <v>0.03487838520846701</v>
+        <v>0.01176877882894626</v>
       </c>
       <c r="F21" t="n">
-        <v>0.03786692321596533</v>
+        <v>0.01311953084027013</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1154,248 +1154,248 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.02702702702702703</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>team_season_penalty_goals_pg</t>
+          <t>team_season_throw_in_goal_ratio</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1754925775978408</v>
+        <v>0.0002355712603062426</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1236315262631052</v>
+        <v>0.0003847070688707975</v>
       </c>
       <c r="D22" t="n">
-        <v>41.95</v>
+        <v>-38.77</v>
       </c>
       <c r="E22" t="n">
-        <v>0.09335481871266059</v>
+        <v>0.0005267533515900564</v>
       </c>
       <c r="F22" t="n">
-        <v>0.06283827129326582</v>
+        <v>0.0005640004235255554</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05263157894736842</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.02702702702702703</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.001177856301531213</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2162162162162162</v>
+        <v>0.001231527093596059</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>team_season_goals_from_throw_ins_pg</t>
+          <t>team_season_throw_in_xg_pg</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.005263157894736842</v>
+        <v>0.005210734033421707</v>
       </c>
       <c r="C23" t="n">
-        <v>0.008961593172119487</v>
+        <v>0.008483000394258854</v>
       </c>
       <c r="D23" t="n">
-        <v>-41.27</v>
+        <v>-38.57</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01176877882894626</v>
+        <v>0.007016839559730113</v>
       </c>
       <c r="F23" t="n">
-        <v>0.01311953084027013</v>
+        <v>0.008926258757571659</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.001536743156611919</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.01773611066470805</v>
       </c>
       <c r="J23" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.02976995334029198</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_xg_pg</t>
+          <t>team_season_obv_shot_pg</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.336072529871293</v>
+        <v>-0.05560120273336226</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9551925499554699</v>
+        <v>-0.09039493012076422</v>
       </c>
       <c r="D24" t="n">
-        <v>39.87</v>
+        <v>38.49</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1881008968046529</v>
+        <v>0.08179854844583159</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1497167006221594</v>
+        <v>0.1332172172646001</v>
       </c>
       <c r="G24" t="n">
-        <v>1.098819780349731</v>
+        <v>-0.1406241556629539</v>
       </c>
       <c r="H24" t="n">
-        <v>0.7799902393205745</v>
+        <v>-0.2934994547552354</v>
       </c>
       <c r="I24" t="n">
-        <v>1.622389118922384</v>
+        <v>0.06944222031877591</v>
       </c>
       <c r="J24" t="n">
-        <v>1.319501258040729</v>
+        <v>0.1318041955758082</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>team_season_throw_in_goal_ratio</t>
+          <t>team_season_np_xg_pg</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0002355712603062426</v>
+        <v>1.283274900607071</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0003847070688707975</v>
+        <v>0.9282996085262941</v>
       </c>
       <c r="D25" t="n">
-        <v>-38.77</v>
+        <v>38.24</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0005267533515900564</v>
+        <v>0.1865333803025703</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0005640004235255554</v>
+        <v>0.1425455908233771</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1.037614202126861</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.7691290793386666</v>
       </c>
       <c r="I25" t="n">
-        <v>0.001177856301531213</v>
+        <v>1.554817211471106</v>
       </c>
       <c r="J25" t="n">
-        <v>0.001231527093596059</v>
+        <v>1.273021824657917</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>team_season_penalties_won_pg</t>
+          <t>team_season_xg_per_throw_in</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.232719298245614</v>
+        <v>0.0002307795657933498</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1703018808281966</v>
+        <v>0.0003649474648230724</v>
       </c>
       <c r="D26" t="n">
-        <v>36.65</v>
+        <v>-36.76</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1048711633913229</v>
+        <v>0.0003153920563943965</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07224758964626084</v>
+        <v>0.0003828949426041946</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1052631578947368</v>
+        <v>6.94573178129681e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.05405405405405406</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.3421052631578947</v>
+        <v>0.0007938424605784063</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2702702702702703</v>
+        <v>0.001227969044161215</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_pg</t>
+          <t>team_season_penalties_won_pg</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.893261715892737</v>
+        <v>0.232719298245614</v>
       </c>
       <c r="C27" t="n">
-        <v>1.394346478607782</v>
+        <v>0.1703018808281966</v>
       </c>
       <c r="D27" t="n">
-        <v>35.78</v>
+        <v>36.65</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2033097717011796</v>
+        <v>0.1048711633913229</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2648865736309991</v>
+        <v>0.07224758964626084</v>
       </c>
       <c r="G27" t="n">
-        <v>1.669226848706603</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9336961944763725</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="I27" t="n">
-        <v>2.122172821790744</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="J27" t="n">
-        <v>2.072996290890794</v>
+        <v>0.2702702702702703</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>team_season_throw_in_xg_pg</t>
+          <t>team_season_obv_pg</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.005223488833770338</v>
+        <v>1.728784713220396</v>
       </c>
       <c r="C28" t="n">
-        <v>0.008063468145043965</v>
+        <v>1.268178932413931</v>
       </c>
       <c r="D28" t="n">
-        <v>-35.22</v>
+        <v>36.32</v>
       </c>
       <c r="E28" t="n">
-        <v>0.007004118712109205</v>
+        <v>0.1796916068927902</v>
       </c>
       <c r="F28" t="n">
-        <v>0.008479484191993939</v>
+        <v>0.2517002614441904</v>
       </c>
       <c r="G28" t="n">
-        <v>0.001715498927392458</v>
+        <v>1.587820214660544</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>0.9435999819801913</v>
       </c>
       <c r="I28" t="n">
-        <v>0.01773611066470805</v>
+        <v>1.928328735263724</v>
       </c>
       <c r="J28" t="n">
-        <v>0.02833923586719745</v>
+        <v>1.971159721675672</v>
       </c>
     </row>
     <row r="29">
@@ -1435,35 +1435,35 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_throw_in</t>
+          <t>team_season_shots_from_throw_ins_conceded_pg</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.000231287590235866</v>
+        <v>0.05762483130904181</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0003472657586292511</v>
+        <v>0.08450819240292926</v>
       </c>
       <c r="D30" t="n">
-        <v>-33.4</v>
+        <v>-31.81</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0003148279069620069</v>
+        <v>0.05065809415466518</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0003644406515441074</v>
+        <v>0.05187326434950653</v>
       </c>
       <c r="G30" t="n">
-        <v>7.187316344091885e-05</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0007938423903726998</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="J30" t="n">
-        <v>0.001168954066741161</v>
+        <v>0.1891891891891892</v>
       </c>
     </row>
     <row r="31">
@@ -1473,22 +1473,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>9.402881241565449</v>
+        <v>9.407881241565452</v>
       </c>
       <c r="C31" t="n">
-        <v>7.181768610715979</v>
+        <v>7.180014224751067</v>
       </c>
       <c r="D31" t="n">
-        <v>30.93</v>
+        <v>31.03</v>
       </c>
       <c r="E31" t="n">
-        <v>1.326627111937433</v>
+        <v>1.318508998303723</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8699989471225869</v>
+        <v>0.8698496199310313</v>
       </c>
       <c r="G31" t="n">
-        <v>7.675</v>
+        <v>7.7</v>
       </c>
       <c r="H31" t="n">
         <v>5.567567567567568</v>
@@ -1571,239 +1571,239 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kick_goals_pg</t>
+          <t>team_season_obv_defensive_action_conceded_pg</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.04630229419703104</v>
+        <v>0.2499862047412034</v>
       </c>
       <c r="C34" t="n">
-        <v>0.03594647278857806</v>
+        <v>0.19339062390347</v>
       </c>
       <c r="D34" t="n">
-        <v>28.81</v>
+        <v>29.26</v>
       </c>
       <c r="E34" t="n">
-        <v>0.03795552256705876</v>
+        <v>0.1163409521960254</v>
       </c>
       <c r="F34" t="n">
-        <v>0.03623383429599517</v>
+        <v>0.07701446932230184</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.08320112172991802</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>0.08845048640413504</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1025641025641026</v>
+        <v>0.3760177432314346</v>
       </c>
       <c r="J34" t="n">
-        <v>0.1081081081081081</v>
+        <v>0.3377699370152856</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>team_season_goals_conceded_pg</t>
+          <t>team_season_direct_free_kick_goals_pg</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.9264372469635628</v>
+        <v>0.04630229419703104</v>
       </c>
       <c r="C35" t="n">
-        <v>1.290803961856593</v>
+        <v>0.03594647278857806</v>
       </c>
       <c r="D35" t="n">
-        <v>-28.23</v>
+        <v>28.81</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1590329060089765</v>
+        <v>0.03795552256705876</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2054714128702834</v>
+        <v>0.03623383429599517</v>
       </c>
       <c r="G35" t="n">
-        <v>0.6578947368421053</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.9736842105263158</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.076923076923077</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="J35" t="n">
-        <v>1.72972972972973</v>
+        <v>0.1081081081081081</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>team_season_high_press_shots_pg</t>
+          <t>team_season_goals_conceded_pg</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2.706578947368421</v>
+        <v>0.9264372469635628</v>
       </c>
       <c r="C36" t="n">
-        <v>2.115083504557189</v>
+        <v>1.290803961856593</v>
       </c>
       <c r="D36" t="n">
-        <v>27.97</v>
+        <v>-28.23</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5283595188538147</v>
+        <v>0.1590329060089765</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2884354093501063</v>
+        <v>0.2054714128702834</v>
       </c>
       <c r="G36" t="n">
-        <v>2.105263157894737</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="H36" t="n">
-        <v>1.756756756756757</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="I36" t="n">
-        <v>3.447368421052631</v>
+        <v>1.076923076923077</v>
       </c>
       <c r="J36" t="n">
-        <v>2.894736842105263</v>
+        <v>1.72972972972973</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>team_season_shots_from_corners_pg</t>
+          <t>team_season_high_press_shots_pg</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.850546558704453</v>
+        <v>2.706578947368421</v>
       </c>
       <c r="C37" t="n">
-        <v>1.447542279121226</v>
+        <v>2.115083504557189</v>
       </c>
       <c r="D37" t="n">
-        <v>27.84</v>
+        <v>27.97</v>
       </c>
       <c r="E37" t="n">
-        <v>0.174565003559705</v>
+        <v>0.5283595188538147</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3421324314934259</v>
+        <v>0.2884354093501063</v>
       </c>
       <c r="G37" t="n">
-        <v>1.657894736842105</v>
+        <v>2.105263157894737</v>
       </c>
       <c r="H37" t="n">
-        <v>1.026315789473684</v>
+        <v>1.756756756756757</v>
       </c>
       <c r="I37" t="n">
-        <v>2.131578947368421</v>
+        <v>3.447368421052631</v>
       </c>
       <c r="J37" t="n">
-        <v>2.289473684210526</v>
+        <v>2.894736842105263</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>team_season_opposition_own_goals_pg</t>
+          <t>team_season_shots_from_corners_pg</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.04144399460188933</v>
+        <v>1.850546558704453</v>
       </c>
       <c r="C38" t="n">
-        <v>0.03248511669564302</v>
+        <v>1.447542279121226</v>
       </c>
       <c r="D38" t="n">
-        <v>27.58</v>
+        <v>27.84</v>
       </c>
       <c r="E38" t="n">
-        <v>0.01416091216805956</v>
+        <v>0.174565003559705</v>
       </c>
       <c r="F38" t="n">
-        <v>0.03426539886848878</v>
+        <v>0.3421324314934259</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02564102564102564</v>
+        <v>1.657894736842105</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.026315789473684</v>
       </c>
       <c r="I38" t="n">
-        <v>0.05263157894736842</v>
+        <v>2.131578947368421</v>
       </c>
       <c r="J38" t="n">
-        <v>0.1081081081081081</v>
+        <v>2.289473684210526</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_shots_pg</t>
+          <t>team_season_opposition_own_goals_pg</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>12.83656545209177</v>
+        <v>0.04144399460188933</v>
       </c>
       <c r="C39" t="n">
-        <v>10.07253305937517</v>
+        <v>0.03248511669564302</v>
       </c>
       <c r="D39" t="n">
-        <v>27.44</v>
+        <v>27.58</v>
       </c>
       <c r="E39" t="n">
-        <v>1.415782146277374</v>
+        <v>0.01416091216805956</v>
       </c>
       <c r="F39" t="n">
-        <v>1.097989092179019</v>
+        <v>0.03426539886848878</v>
       </c>
       <c r="G39" t="n">
-        <v>10.975</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="H39" t="n">
-        <v>8.54054054054054</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>14.39473684210526</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="J39" t="n">
-        <v>13.18421052631579</v>
+        <v>0.1081081081081081</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_free_kick</t>
+          <t>team_season_np_shots_pg</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.005646258350155973</v>
+        <v>12.83656545209177</v>
       </c>
       <c r="C40" t="n">
-        <v>0.004441643189989732</v>
+        <v>10.07253305937517</v>
       </c>
       <c r="D40" t="n">
-        <v>27.12</v>
+        <v>27.44</v>
       </c>
       <c r="E40" t="n">
-        <v>0.001789483165406383</v>
+        <v>1.415782146277374</v>
       </c>
       <c r="F40" t="n">
-        <v>0.001392898418566988</v>
+        <v>1.097989092179019</v>
       </c>
       <c r="G40" t="n">
-        <v>0.003808729072450889</v>
+        <v>10.975</v>
       </c>
       <c r="H40" t="n">
-        <v>0.002592951275300289</v>
+        <v>8.54054054054054</v>
       </c>
       <c r="I40" t="n">
-        <v>0.00777912667200652</v>
+        <v>14.39473684210526</v>
       </c>
       <c r="J40" t="n">
-        <v>0.006820183430077895</v>
+        <v>13.18421052631579</v>
       </c>
     </row>
     <row r="41">
@@ -1911,23 +1911,23 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>team_season_shots_from_throw_ins_conceded_pg</t>
+          <t>team_season_throw_in_shot_ratio_conceded</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.06288798920377865</v>
+        <v>0.002656268606109318</v>
       </c>
       <c r="C44" t="n">
-        <v>0.08450819240292926</v>
+        <v>0.00357996922845851</v>
       </c>
       <c r="D44" t="n">
-        <v>-25.58</v>
+        <v>-25.8</v>
       </c>
       <c r="E44" t="n">
-        <v>0.05463795711179018</v>
+        <v>0.002477157996684669</v>
       </c>
       <c r="F44" t="n">
-        <v>0.05187326434950653</v>
+        <v>0.002163078128117444</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -1936,826 +1936,826 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.131578947368421</v>
+        <v>0.00646830530401035</v>
       </c>
       <c r="J44" t="n">
-        <v>0.1891891891891892</v>
+        <v>0.0080091533180778</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>team_season_free_kick_xg_pg</t>
+          <t>team_season_obv_dribble_carry_pg</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.09027498560640257</v>
+        <v>0.7833519973207953</v>
       </c>
       <c r="C45" t="n">
-        <v>0.07191846384810009</v>
+        <v>0.6265216592105444</v>
       </c>
       <c r="D45" t="n">
-        <v>25.52</v>
+        <v>25.03</v>
       </c>
       <c r="E45" t="n">
-        <v>0.03027343465274211</v>
+        <v>0.08546315847730769</v>
       </c>
       <c r="F45" t="n">
-        <v>0.02176490881693293</v>
+        <v>0.08090962464891563</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05101692066282818</v>
+        <v>0.6611549524590373</v>
       </c>
       <c r="H45" t="n">
-        <v>0.03766602848803526</v>
+        <v>0.5119136852791181</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1262612109048626</v>
+        <v>0.8815574724423257</v>
       </c>
       <c r="J45" t="n">
-        <v>0.1033456706995698</v>
+        <v>0.7911566177735457</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_dribble_carry_pg</t>
+          <t>team_season_defensive_distance_ppda</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.7833519809975635</v>
+        <v>5.99368988218628</v>
       </c>
       <c r="C46" t="n">
-        <v>0.6265216695726992</v>
+        <v>4.807418068623488</v>
       </c>
       <c r="D46" t="n">
-        <v>25.03</v>
+        <v>24.68</v>
       </c>
       <c r="E46" t="n">
-        <v>0.08546317978942237</v>
+        <v>1.527844489862362</v>
       </c>
       <c r="F46" t="n">
-        <v>0.08090961659063585</v>
+        <v>0.7102802083853499</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6611549498513341</v>
+        <v>4.555138587472777</v>
       </c>
       <c r="H46" t="n">
-        <v>0.5119136257751568</v>
+        <v>3.975047164260665</v>
       </c>
       <c r="I46" t="n">
-        <v>0.8815575308705631</v>
+        <v>8.246182378349362</v>
       </c>
       <c r="J46" t="n">
-        <v>0.7911566030737516</v>
+        <v>6.138202157915541</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_defensive_action_conceded_pg</t>
+          <t>team_season_corner_goal_ratio</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.2291196409974614</v>
+        <v>0.03969386353391716</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1834604027261973</v>
+        <v>0.03189053124191361</v>
       </c>
       <c r="D47" t="n">
-        <v>24.89</v>
+        <v>24.47</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1122075365778368</v>
+        <v>0.01418991360989016</v>
       </c>
       <c r="F47" t="n">
-        <v>0.06967900312946008</v>
+        <v>0.0190759511996734</v>
       </c>
       <c r="G47" t="n">
-        <v>0.06187430473092275</v>
+        <v>0.02369668246445497</v>
       </c>
       <c r="H47" t="n">
-        <v>0.09350278591246981</v>
+        <v>0.005714285714285714</v>
       </c>
       <c r="I47" t="n">
-        <v>0.3494736590471707</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="J47" t="n">
-        <v>0.3067089806457883</v>
+        <v>0.06206896551724138</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_gk_conceded_pg</t>
+          <t>team_season_shots_from_throw_ins_pg</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0.1256315601091611</v>
+        <v>0.06209851551956815</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.1007492080852853</v>
+        <v>0.08198461619514254</v>
       </c>
       <c r="D48" t="n">
-        <v>-24.7</v>
+        <v>-24.26</v>
       </c>
       <c r="E48" t="n">
-        <v>0.06446651360020451</v>
+        <v>0.02308471015557056</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1116753160054115</v>
+        <v>0.06107256818132713</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.2016765141161159</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.3169702829204892</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.05440429951219509</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="J48" t="n">
-        <v>0.08610279228840326</v>
+        <v>0.2105263157894737</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>team_season_defensive_distance_ppda</t>
+          <t>team_season_counter_attacking_shots_pg</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>5.993690276908634</v>
+        <v>1.234419703103913</v>
       </c>
       <c r="C49" t="n">
-        <v>4.807417909612488</v>
+        <v>0.994602497234076</v>
       </c>
       <c r="D49" t="n">
-        <v>24.68</v>
+        <v>24.11</v>
       </c>
       <c r="E49" t="n">
-        <v>1.527844741725794</v>
+        <v>0.4967318492087451</v>
       </c>
       <c r="F49" t="n">
-        <v>0.7102799573441758</v>
+        <v>0.2250507052591548</v>
       </c>
       <c r="G49" t="n">
-        <v>4.55513897894876</v>
+        <v>0.5</v>
       </c>
       <c r="H49" t="n">
-        <v>3.975047496473333</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="I49" t="n">
-        <v>8.246183008283831</v>
+        <v>1.81578947368421</v>
       </c>
       <c r="J49" t="n">
-        <v>6.138202157915541</v>
+        <v>1.432432432432432</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>team_season_corner_goal_ratio</t>
+          <t>team_season_successful_passes_pg</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.03969386353391716</v>
+        <v>419.4097368421053</v>
       </c>
       <c r="C50" t="n">
-        <v>0.03189053124191361</v>
+        <v>338.9738027501186</v>
       </c>
       <c r="D50" t="n">
-        <v>24.47</v>
+        <v>23.73</v>
       </c>
       <c r="E50" t="n">
-        <v>0.01418991360989016</v>
+        <v>62.59578242022823</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0190759511996734</v>
+        <v>44.33828143843125</v>
       </c>
       <c r="G50" t="n">
-        <v>0.02369668246445497</v>
+        <v>353</v>
       </c>
       <c r="H50" t="n">
-        <v>0.005714285714285714</v>
+        <v>275.8918918918919</v>
       </c>
       <c r="I50" t="n">
-        <v>0.05714285714285714</v>
+        <v>490.6842105263158</v>
       </c>
       <c r="J50" t="n">
-        <v>0.06206896551724138</v>
+        <v>433.921052631579</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>team_season_free_kick_xg_conceded_pg</t>
+          <t>team_season_direct_free_kick_goals_conceded_pg</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.06196051807783158</v>
+        <v>0.03157894736842105</v>
       </c>
       <c r="C51" t="n">
-        <v>0.08171979980613181</v>
+        <v>0.04135714662030451</v>
       </c>
       <c r="D51" t="n">
-        <v>-24.18</v>
+        <v>-23.64</v>
       </c>
       <c r="E51" t="n">
-        <v>0.005509200993331184</v>
+        <v>0.03431159160632973</v>
       </c>
       <c r="F51" t="n">
-        <v>0.02589069621552882</v>
+        <v>0.03809664667310949</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0539342690492049</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0543678030623375</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0.0681941125016564</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="J51" t="n">
-        <v>0.143024518532125</v>
+        <v>0.1081081081081081</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>team_season_counter_attacking_shots_pg</t>
+          <t>team_season_sp_goals_pg</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1.234419703103913</v>
+        <v>0.2991497975708503</v>
       </c>
       <c r="C52" t="n">
-        <v>0.994602497234076</v>
+        <v>0.2426347400031609</v>
       </c>
       <c r="D52" t="n">
-        <v>24.11</v>
+        <v>23.29</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4967318492087451</v>
+        <v>0.1119314589846525</v>
       </c>
       <c r="F52" t="n">
-        <v>0.2250507052591548</v>
+        <v>0.1023505941451225</v>
       </c>
       <c r="G52" t="n">
-        <v>0.5</v>
+        <v>0.184210526315789</v>
       </c>
       <c r="H52" t="n">
-        <v>0.7297297297297297</v>
+        <v>0.105263157894737</v>
       </c>
       <c r="I52" t="n">
-        <v>1.81578947368421</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="J52" t="n">
-        <v>1.432432432432432</v>
+        <v>0.421052631578947</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>team_season_successful_passes_pg</t>
+          <t>team_season_shots_from_corners_conceded_pg</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>419.4097368421053</v>
+        <v>1.274365721997301</v>
       </c>
       <c r="C53" t="n">
-        <v>338.9738027501186</v>
+        <v>1.648888362046257</v>
       </c>
       <c r="D53" t="n">
-        <v>23.73</v>
+        <v>-22.71</v>
       </c>
       <c r="E53" t="n">
-        <v>62.59578242022823</v>
+        <v>0.3430064633123622</v>
       </c>
       <c r="F53" t="n">
-        <v>44.33828143843125</v>
+        <v>0.3189980127114812</v>
       </c>
       <c r="G53" t="n">
-        <v>353</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>275.8918918918919</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>490.6842105263158</v>
+        <v>1.82051282051282</v>
       </c>
       <c r="J53" t="n">
-        <v>433.921052631579</v>
+        <v>2.27027027027027</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kick_goals_conceded_pg</t>
+          <t>team_season_throw_in_shot_ratio</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.03157894736842105</v>
+        <v>0.00274387537641304</v>
       </c>
       <c r="C54" t="n">
-        <v>0.04135714662030451</v>
+        <v>0.003544848996982378</v>
       </c>
       <c r="D54" t="n">
-        <v>-23.64</v>
+        <v>-22.6</v>
       </c>
       <c r="E54" t="n">
-        <v>0.03431159160632973</v>
+        <v>0.001109227735182343</v>
       </c>
       <c r="F54" t="n">
-        <v>0.03809664667310949</v>
+        <v>0.002640810955760052</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>0.001102535832414553</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.003610108303249098</v>
       </c>
       <c r="J54" t="n">
-        <v>0.1081081081081081</v>
+        <v>0.009422850412249705</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_goals_pg</t>
+          <t>team_season_corner_xg_conceded_pg</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.2991497975708503</v>
+        <v>0.1230061092376131</v>
       </c>
       <c r="C55" t="n">
-        <v>0.2426347400031609</v>
+        <v>0.1586929996373004</v>
       </c>
       <c r="D55" t="n">
-        <v>23.29</v>
+        <v>-22.49</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1119314589846525</v>
+        <v>0.04204353352268925</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1023505941451225</v>
+        <v>0.03736044698754976</v>
       </c>
       <c r="G55" t="n">
-        <v>0.184210526315789</v>
+        <v>0.08241463261656461</v>
       </c>
       <c r="H55" t="n">
-        <v>0.105263157894737</v>
+        <v>0.0971145724525323</v>
       </c>
       <c r="I55" t="n">
-        <v>0.461538461538462</v>
+        <v>0.18437335628252</v>
       </c>
       <c r="J55" t="n">
-        <v>0.421052631578947</v>
+        <v>0.219154406187905</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>team_season_corner_xg_conceded_pg</t>
+          <t>team_season_sp_goal_ratio</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.1181557273970696</v>
+        <v>0.006749851794925392</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1536396098626455</v>
+        <v>0.005528693327772744</v>
       </c>
       <c r="D56" t="n">
-        <v>-23.1</v>
+        <v>22.09</v>
       </c>
       <c r="E56" t="n">
-        <v>0.04318415652572776</v>
+        <v>0.00243026099749589</v>
       </c>
       <c r="F56" t="n">
-        <v>0.03753647057390232</v>
+        <v>0.002336511756780018</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0749781230464578</v>
+        <v>0.00438837081733406</v>
       </c>
       <c r="H56" t="n">
-        <v>0.08574430911323511</v>
+        <v>0.00239664469742361</v>
       </c>
       <c r="I56" t="n">
-        <v>0.182906924317089</v>
+        <v>0.0100111234705228</v>
       </c>
       <c r="J56" t="n">
-        <v>0.211457495502121</v>
+        <v>0.00991940483570986</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>team_season_shots_from_corners_conceded_pg</t>
+          <t>team_season_xg_per_free_kick</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1.274365721997301</v>
+        <v>0.005580168451498324</v>
       </c>
       <c r="C57" t="n">
-        <v>1.648888362046257</v>
+        <v>0.00457123103300106</v>
       </c>
       <c r="D57" t="n">
-        <v>-22.71</v>
+        <v>22.07</v>
       </c>
       <c r="E57" t="n">
-        <v>0.3430064633123622</v>
+        <v>0.001635720261917418</v>
       </c>
       <c r="F57" t="n">
-        <v>0.3189980127114812</v>
+        <v>0.001376132768051436</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>0.003816109977677201</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0.002522489298944888</v>
       </c>
       <c r="I57" t="n">
-        <v>1.82051282051282</v>
+        <v>0.007675616850408521</v>
       </c>
       <c r="J57" t="n">
-        <v>2.27027027027027</v>
+        <v>0.006958757731931429</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_goal_ratio</t>
+          <t>team_season_corner_goal_ratio_conceded</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.006749851794925392</v>
+        <v>0.0269465739827884</v>
       </c>
       <c r="C58" t="n">
-        <v>0.005528693327772744</v>
+        <v>0.03451300726252444</v>
       </c>
       <c r="D58" t="n">
-        <v>22.09</v>
+        <v>-21.92</v>
       </c>
       <c r="E58" t="n">
-        <v>0.00243026099749589</v>
+        <v>0.01156547024703791</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002336511756780018</v>
+        <v>0.01667646101866924</v>
       </c>
       <c r="G58" t="n">
-        <v>0.00438837081733406</v>
+        <v>0.0158730158730159</v>
       </c>
       <c r="H58" t="n">
-        <v>0.00239664469742361</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0.0100111234705228</v>
+        <v>0.0423728813559322</v>
       </c>
       <c r="J58" t="n">
-        <v>0.00991940483570986</v>
+        <v>0.0564102564102564</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>team_season_corner_goal_ratio_conceded</t>
+          <t>team_season_free_kick_xg_conceded_pg</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.0269465739827884</v>
+        <v>0.06453916529480083</v>
       </c>
       <c r="C59" t="n">
-        <v>0.03451300726252444</v>
+        <v>0.08261757797594357</v>
       </c>
       <c r="D59" t="n">
-        <v>-21.92</v>
+        <v>-21.88</v>
       </c>
       <c r="E59" t="n">
-        <v>0.01156547024703791</v>
+        <v>0.005989713908171754</v>
       </c>
       <c r="F59" t="n">
-        <v>0.01667646101866924</v>
+        <v>0.0243337248474252</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0158730158730159</v>
+        <v>0.0581869402361151</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>0.056299530459862</v>
       </c>
       <c r="I59" t="n">
-        <v>0.0423728813559322</v>
+        <v>0.0705140428862682</v>
       </c>
       <c r="J59" t="n">
-        <v>0.0564102564102564</v>
+        <v>0.137814961273122</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_xg_conceded_pg</t>
+          <t>team_season_shots_from_free_kicks_conceded_pg</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.6554909007488303</v>
+        <v>0.6579149797570851</v>
       </c>
       <c r="C60" t="n">
-        <v>0.8389146579003712</v>
+        <v>0.8359095938043307</v>
       </c>
       <c r="D60" t="n">
-        <v>-21.86</v>
+        <v>-21.29</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1093706962219046</v>
+        <v>0.1155350163327834</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1469954176529397</v>
+        <v>0.1560386401615106</v>
       </c>
       <c r="G60" t="n">
-        <v>0.5047126782960013</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="H60" t="n">
-        <v>0.6736113731120084</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="I60" t="n">
-        <v>0.8015399077907205</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="J60" t="n">
-        <v>1.204603978709595</v>
+        <v>1.222222222222222</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_xg_conceded_pg</t>
+          <t>team_season_op_shots_conceded_outside_box_pg</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.8745857255163825</v>
+        <v>2.852503373819163</v>
       </c>
       <c r="C61" t="n">
-        <v>1.11522262273977</v>
+        <v>3.61245192560982</v>
       </c>
       <c r="D61" t="n">
-        <v>-21.58</v>
+        <v>-21.04</v>
       </c>
       <c r="E61" t="n">
-        <v>0.1102958492938534</v>
+        <v>0.8772307983907294</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1445104197733199</v>
+        <v>0.5039849477379557</v>
       </c>
       <c r="G61" t="n">
-        <v>0.7109526568337491</v>
+        <v>1.81578947368421</v>
       </c>
       <c r="H61" t="n">
-        <v>0.9603146600562174</v>
+        <v>2.513513513513514</v>
       </c>
       <c r="I61" t="n">
-        <v>0.9903063006125964</v>
+        <v>3.974358974358974</v>
       </c>
       <c r="J61" t="n">
-        <v>1.478903403556025</v>
+        <v>4.447368421052632</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_free_kick_conceded</t>
+          <t>team_season_free_kick_xg_pg</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.003962909027133518</v>
+        <v>0.08929697401857434</v>
       </c>
       <c r="C62" t="n">
-        <v>0.005046842160315652</v>
+        <v>0.07407565305994877</v>
       </c>
       <c r="D62" t="n">
-        <v>-21.48</v>
+        <v>20.55</v>
       </c>
       <c r="E62" t="n">
-        <v>0.000576003312538573</v>
+        <v>0.02829864325715794</v>
       </c>
       <c r="F62" t="n">
-        <v>0.001627043152282795</v>
+        <v>0.02182023177443216</v>
       </c>
       <c r="G62" t="n">
-        <v>0.00346844180987196</v>
+        <v>0.05111578864192492</v>
       </c>
       <c r="H62" t="n">
-        <v>0.00318292537821999</v>
+        <v>0.03664247032352969</v>
       </c>
       <c r="I62" t="n">
-        <v>0.00495922589159865</v>
+        <v>0.1245811712713196</v>
       </c>
       <c r="J62" t="n">
-        <v>0.00838654165978288</v>
+        <v>0.106074049087191</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_shots_conceded_outside_box_pg</t>
+          <t>team_season_direct_free_kick_goal_ratio_conceded</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2.847240215924426</v>
+        <v>0.0548318957929943</v>
       </c>
       <c r="C63" t="n">
-        <v>3.614303777461672</v>
+        <v>0.06900004430062925</v>
       </c>
       <c r="D63" t="n">
-        <v>-21.22</v>
+        <v>-20.53</v>
       </c>
       <c r="E63" t="n">
-        <v>0.8805392445830511</v>
+        <v>0.06029131546854322</v>
       </c>
       <c r="F63" t="n">
-        <v>0.5058861975686071</v>
+        <v>0.05898726862076728</v>
       </c>
       <c r="G63" t="n">
-        <v>1.81578947368421</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>2.513513513513514</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>3.974358974358974</v>
+        <v>0.130434782608696</v>
       </c>
       <c r="J63" t="n">
-        <v>4.447368421052632</v>
+        <v>0.148148148148148</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>team_season_shots_from_free_kicks_conceded_pg</t>
+          <t>team_season_obv_pass_pg</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.6579149797570851</v>
+        <v>0.8302589356606417</v>
       </c>
       <c r="C64" t="n">
-        <v>0.8340577419524788</v>
+        <v>0.6895345877788451</v>
       </c>
       <c r="D64" t="n">
-        <v>-21.12</v>
+        <v>20.41</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1155350163327834</v>
+        <v>0.06551492008087832</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1512167680251286</v>
+        <v>0.08728051832436348</v>
       </c>
       <c r="G64" t="n">
-        <v>0.5526315789473685</v>
+        <v>0.7367719984613359</v>
       </c>
       <c r="H64" t="n">
-        <v>0.6756756756756757</v>
+        <v>0.5102937015083929</v>
       </c>
       <c r="I64" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.9127235918452865</v>
       </c>
       <c r="J64" t="n">
-        <v>1.194444444444444</v>
+        <v>0.9144034060208421</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_xg_conceded_pg</t>
+          <t>team_season_deep_completions_conceded_pg</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.2190948247486177</v>
+        <v>2.108603238866397</v>
       </c>
       <c r="C65" t="n">
-        <v>0.2762830825202239</v>
+        <v>2.646865286338971</v>
       </c>
       <c r="D65" t="n">
-        <v>-20.7</v>
+        <v>-20.34</v>
       </c>
       <c r="E65" t="n">
-        <v>0.05146984472185952</v>
+        <v>0.4003429248245765</v>
       </c>
       <c r="F65" t="n">
-        <v>0.03851249270149088</v>
+        <v>0.4231247927970262</v>
       </c>
       <c r="G65" t="n">
-        <v>0.1606558738974854</v>
+        <v>1.631578947368421</v>
       </c>
       <c r="H65" t="n">
-        <v>0.2015498132493935</v>
+        <v>2.108108108108108</v>
       </c>
       <c r="I65" t="n">
-        <v>0.2922063362665283</v>
+        <v>2.615384615384615</v>
       </c>
       <c r="J65" t="n">
-        <v>0.333911729523459</v>
+        <v>3.432432432432432</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kick_goal_ratio_conceded</t>
+          <t>team_season_op_xg_conceded_pg</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.0548318957929943</v>
+        <v>0.6374485200821006</v>
       </c>
       <c r="C66" t="n">
-        <v>0.06900004430062925</v>
+        <v>0.7988713747631383</v>
       </c>
       <c r="D66" t="n">
-        <v>-20.53</v>
+        <v>-20.21</v>
       </c>
       <c r="E66" t="n">
-        <v>0.06029131546854322</v>
+        <v>0.1111316193938855</v>
       </c>
       <c r="F66" t="n">
-        <v>0.05898726862076728</v>
+        <v>0.1508776892906702</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>0.4900984024923098</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>0.6433613485581166</v>
       </c>
       <c r="I66" t="n">
-        <v>0.130434782608696</v>
+        <v>0.7960319377481937</v>
       </c>
       <c r="J66" t="n">
-        <v>0.148148148148148</v>
+        <v>1.193521465602759</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_pass_pg</t>
+          <t>team_season_np_xg_conceded_pg</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.8302589478342846</v>
+        <v>0.8590897553414107</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6895345571980509</v>
+        <v>1.075097194572405</v>
       </c>
       <c r="D67" t="n">
-        <v>20.41</v>
+        <v>-20.09</v>
       </c>
       <c r="E67" t="n">
-        <v>0.06551487025566059</v>
+        <v>0.1062909190595143</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08728052212907356</v>
+        <v>0.1471071122618555</v>
       </c>
       <c r="G67" t="n">
-        <v>0.7367720528040081</v>
+        <v>0.6979932459561449</v>
       </c>
       <c r="H67" t="n">
-        <v>0.5102937512824105</v>
+        <v>0.9299714973098353</v>
       </c>
       <c r="I67" t="n">
-        <v>0.9127234596955148</v>
+        <v>0.9633683007210493</v>
       </c>
       <c r="J67" t="n">
-        <v>0.9144034832715988</v>
+        <v>1.463352695912928</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>team_season_deep_completions_conceded_pg</t>
+          <t>team_season_direct_free_kick_xg_conceded_pg</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>2.108603238866397</v>
+        <v>0.03078128269916922</v>
       </c>
       <c r="C68" t="n">
-        <v>2.646865286338971</v>
+        <v>0.02566822237818765</v>
       </c>
       <c r="D68" t="n">
-        <v>-20.34</v>
+        <v>19.92</v>
       </c>
       <c r="E68" t="n">
-        <v>0.4003429248245765</v>
+        <v>0.006016895384393122</v>
       </c>
       <c r="F68" t="n">
-        <v>0.4231247927970262</v>
+        <v>0.01442102078456789</v>
       </c>
       <c r="G68" t="n">
-        <v>1.631578947368421</v>
+        <v>0.0263819594769494</v>
       </c>
       <c r="H68" t="n">
-        <v>2.108108108108108</v>
+        <v>0.0128399851429905</v>
       </c>
       <c r="I68" t="n">
-        <v>2.615384615384615</v>
+        <v>0.0396069146594719</v>
       </c>
       <c r="J68" t="n">
-        <v>3.432432432432432</v>
+        <v>0.0696868103349934</v>
       </c>
     </row>
     <row r="69">
@@ -2829,69 +2829,69 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>team_season_counter_attacking_shots_conceded_pg</t>
+          <t>team_season_sp_xg_conceded_pg</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.8935222672064776</v>
+        <v>0.2216412266861903</v>
       </c>
       <c r="C71" t="n">
-        <v>1.112841789157578</v>
+        <v>0.2762173171491528</v>
       </c>
       <c r="D71" t="n">
-        <v>-19.71</v>
+        <v>-19.76</v>
       </c>
       <c r="E71" t="n">
-        <v>0.241203484869681</v>
+        <v>0.04648089952436385</v>
       </c>
       <c r="F71" t="n">
-        <v>0.284493752129627</v>
+        <v>0.03865535066719387</v>
       </c>
       <c r="G71" t="n">
-        <v>0.6052631578947368</v>
+        <v>0.1673363599926233</v>
       </c>
       <c r="H71" t="n">
-        <v>0.5945945945945946</v>
+        <v>0.2034587763298891</v>
       </c>
       <c r="I71" t="n">
-        <v>1.230769230769231</v>
+        <v>0.2866452906567317</v>
       </c>
       <c r="J71" t="n">
-        <v>1.694444444444444</v>
+        <v>0.3332076778292264</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>team_season_throw_in_shot_ratio_conceded</t>
+          <t>team_season_counter_attacking_shots_conceded_pg</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.0028877500875908</v>
+        <v>0.8935222672064776</v>
       </c>
       <c r="C72" t="n">
-        <v>0.00357996922845851</v>
+        <v>1.112841789157578</v>
       </c>
       <c r="D72" t="n">
-        <v>-19.34</v>
+        <v>-19.71</v>
       </c>
       <c r="E72" t="n">
-        <v>0.002622293938821139</v>
+        <v>0.241203484869681</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002163078128117444</v>
+        <v>0.284493752129627</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="I72" t="n">
-        <v>0.00646830530401035</v>
+        <v>1.230769230769231</v>
       </c>
       <c r="J72" t="n">
-        <v>0.0080091533180778</v>
+        <v>1.694444444444444</v>
       </c>
     </row>
     <row r="73">
@@ -2904,16 +2904,16 @@
         <v>0.04152035259110026</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0513095552685815</v>
+        <v>0.05142048150263585</v>
       </c>
       <c r="D73" t="n">
-        <v>-19.08</v>
+        <v>-19.25</v>
       </c>
       <c r="E73" t="n">
         <v>0.003349725155273423</v>
       </c>
       <c r="F73" t="n">
-        <v>0.008608148472291993</v>
+        <v>0.008893554490588242</v>
       </c>
       <c r="G73" t="n">
         <v>0.0369774919614148</v>
@@ -2925,7 +2925,7 @@
         <v>0.0463483146067416</v>
       </c>
       <c r="J73" t="n">
-        <v>0.0715474209650582</v>
+        <v>0.07321131447587351</v>
       </c>
     </row>
     <row r="74">
@@ -2965,69 +2965,69 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_shots_pg</t>
+          <t>team_season_xg_per_free_kick_conceded</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>3.433684210526316</v>
+        <v>0.0041409658025013</v>
       </c>
       <c r="C75" t="n">
-        <v>2.888912596807334</v>
+        <v>0.005096959453219707</v>
       </c>
       <c r="D75" t="n">
-        <v>18.86</v>
+        <v>-18.76</v>
       </c>
       <c r="E75" t="n">
-        <v>0.3572090955590836</v>
+        <v>0.0007207484454421233</v>
       </c>
       <c r="F75" t="n">
-        <v>0.4093300898673679</v>
+        <v>0.001511132177228842</v>
       </c>
       <c r="G75" t="n">
-        <v>3.026315789473684</v>
+        <v>0.00359229057022695</v>
       </c>
       <c r="H75" t="n">
-        <v>2.052631578947369</v>
+        <v>0.00331932230840755</v>
       </c>
       <c r="I75" t="n">
-        <v>4</v>
+        <v>0.00532710481116596</v>
       </c>
       <c r="J75" t="n">
-        <v>3.702702702702703</v>
+        <v>0.008081068894375709</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>team_season_free_kick_shot_ratio</t>
+          <t>team_season_sp_shots_pg</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.05522742531573203</v>
+        <v>3.428684210526316</v>
       </c>
       <c r="C76" t="n">
-        <v>0.04656871514713554</v>
+        <v>2.890666982772246</v>
       </c>
       <c r="D76" t="n">
-        <v>18.59</v>
+        <v>18.61</v>
       </c>
       <c r="E76" t="n">
-        <v>0.01466081580154056</v>
+        <v>0.3597143180104421</v>
       </c>
       <c r="F76" t="n">
-        <v>0.006325925523239907</v>
+        <v>0.4098962214256793</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0412573673870334</v>
+        <v>3.026315789473684</v>
       </c>
       <c r="H76" t="n">
-        <v>0.03902439024390244</v>
+        <v>2.052631578947369</v>
       </c>
       <c r="I76" t="n">
-        <v>0.07898894154818326</v>
+        <v>4</v>
       </c>
       <c r="J76" t="n">
-        <v>0.05849056603773585</v>
+        <v>3.702702702702703</v>
       </c>
     </row>
     <row r="77">
@@ -3037,19 +3037,19 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>6.626538461538462</v>
+        <v>6.631801619433199</v>
       </c>
       <c r="C77" t="n">
-        <v>8.135156208840419</v>
+        <v>8.133304356988567</v>
       </c>
       <c r="D77" t="n">
-        <v>-18.54</v>
+        <v>-18.46</v>
       </c>
       <c r="E77" t="n">
-        <v>1.392447794160829</v>
+        <v>1.3899079889174</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9190724638957758</v>
+        <v>0.9154271331502049</v>
       </c>
       <c r="G77" t="n">
         <v>4.973684210526316</v>
@@ -3061,143 +3061,143 @@
         <v>8.307692307692308</v>
       </c>
       <c r="J77" t="n">
-        <v>9.833333333333334</v>
+        <v>9.805555555555555</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_shots_conceded_pg</t>
+          <t>team_season_free_kick_shot_ratio</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>9.243582995951417</v>
+        <v>0.05522742531573203</v>
       </c>
       <c r="C78" t="n">
-        <v>11.3138348875191</v>
+        <v>0.04667854491100156</v>
       </c>
       <c r="D78" t="n">
-        <v>-18.3</v>
+        <v>18.31</v>
       </c>
       <c r="E78" t="n">
-        <v>1.652656478859365</v>
+        <v>0.01466081580154056</v>
       </c>
       <c r="F78" t="n">
-        <v>1.088948616177617</v>
+        <v>0.006270503710406328</v>
       </c>
       <c r="G78" t="n">
-        <v>7.605263157894737</v>
+        <v>0.0412573673870334</v>
       </c>
       <c r="H78" t="n">
-        <v>9.297297297297296</v>
+        <v>0.03902439024390244</v>
       </c>
       <c r="I78" t="n">
-        <v>11.76923076923077</v>
+        <v>0.07898894154818326</v>
       </c>
       <c r="J78" t="n">
-        <v>13.30555555555556</v>
+        <v>0.05849056603773585</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>team_season_corner_xg_pg</t>
+          <t>team_season_np_shots_conceded_pg</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.1630535345179451</v>
+        <v>9.243582995951417</v>
       </c>
       <c r="C79" t="n">
-        <v>0.1379452420780841</v>
+        <v>11.3138348875191</v>
       </c>
       <c r="D79" t="n">
-        <v>18.2</v>
+        <v>-18.3</v>
       </c>
       <c r="E79" t="n">
-        <v>0.02296345505219115</v>
+        <v>1.652656478859365</v>
       </c>
       <c r="F79" t="n">
-        <v>0.03284937287723669</v>
+        <v>1.088948616177617</v>
       </c>
       <c r="G79" t="n">
-        <v>0.1295443004579283</v>
+        <v>7.605263157894737</v>
       </c>
       <c r="H79" t="n">
-        <v>0.09565957020478029</v>
+        <v>9.297297297297296</v>
       </c>
       <c r="I79" t="n">
-        <v>0.1897652817792014</v>
+        <v>11.76923076923077</v>
       </c>
       <c r="J79" t="n">
-        <v>0.2250561826176157</v>
+        <v>13.30555555555556</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>team_season_shots_from_throw_ins_pg</t>
+          <t>team_season_obv_gk_conceded_pg</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.06709851551956816</v>
+        <v>-0.1496214831483899</v>
       </c>
       <c r="C80" t="n">
-        <v>0.08198461619514254</v>
+        <v>-0.1268536015877949</v>
       </c>
       <c r="D80" t="n">
-        <v>-18.16</v>
+        <v>-17.95</v>
       </c>
       <c r="E80" t="n">
-        <v>0.02862118793782153</v>
+        <v>0.05125910887960603</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06107256818132713</v>
+        <v>0.09494490009996753</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02631578947368421</v>
+        <v>-0.2083323554834351</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>-0.2763646265589877</v>
       </c>
       <c r="I80" t="n">
-        <v>0.1</v>
+        <v>-0.09711930419628818</v>
       </c>
       <c r="J80" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.05944250232061824</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_shot_ratio</t>
+          <t>team_season_sp_shots_conceded_pg</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.07766074486018866</v>
+        <v>2.611781376518219</v>
       </c>
       <c r="C81" t="n">
-        <v>0.06588486699823329</v>
+        <v>3.178728728728728</v>
       </c>
       <c r="D81" t="n">
-        <v>17.87</v>
+        <v>-17.84</v>
       </c>
       <c r="E81" t="n">
-        <v>0.007402073944781821</v>
+        <v>0.5189842522345287</v>
       </c>
       <c r="F81" t="n">
-        <v>0.009974415851429918</v>
+        <v>0.3826261032692916</v>
       </c>
       <c r="G81" t="n">
-        <v>0.068452380952381</v>
+        <v>2.15</v>
       </c>
       <c r="H81" t="n">
-        <v>0.0475030450669915</v>
+        <v>2.54054054054054</v>
       </c>
       <c r="I81" t="n">
-        <v>0.0867630700778643</v>
+        <v>3.461538461538462</v>
       </c>
       <c r="J81" t="n">
-        <v>0.08493490390576559</v>
+        <v>3.72972972972973</v>
       </c>
     </row>
     <row r="82">
@@ -3237,69 +3237,69 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_shots_conceded_pg</t>
+          <t>team_season_sp_shot_ratio</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>2.617044534412956</v>
+        <v>0.0775423315979033</v>
       </c>
       <c r="C83" t="n">
-        <v>3.176876876876876</v>
+        <v>0.06592481107652368</v>
       </c>
       <c r="D83" t="n">
-        <v>-17.62</v>
+        <v>17.62</v>
       </c>
       <c r="E83" t="n">
-        <v>0.5143439965224395</v>
+        <v>0.007396969408690532</v>
       </c>
       <c r="F83" t="n">
-        <v>0.3810240008649751</v>
+        <v>0.009985990230670897</v>
       </c>
       <c r="G83" t="n">
-        <v>2.15</v>
+        <v>0.068452380952381</v>
       </c>
       <c r="H83" t="n">
-        <v>2.54054054054054</v>
+        <v>0.0475030450669915</v>
       </c>
       <c r="I83" t="n">
-        <v>3.461538461538462</v>
+        <v>0.0867630700778643</v>
       </c>
       <c r="J83" t="n">
-        <v>3.72972972972973</v>
+        <v>0.08493490390576559</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>team_season_shots_from_free_kicks_pg</t>
+          <t>team_season_xg_per_direct_free_kick_conceded</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.8848313090418353</v>
+        <v>0.05387979136073993</v>
       </c>
       <c r="C84" t="n">
-        <v>0.755010273431326</v>
+        <v>0.04593193891023733</v>
       </c>
       <c r="D84" t="n">
-        <v>17.19</v>
+        <v>17.3</v>
       </c>
       <c r="E84" t="n">
-        <v>0.2683273801524798</v>
+        <v>0.005720010184007454</v>
       </c>
       <c r="F84" t="n">
-        <v>0.117974355716353</v>
+        <v>0.022889329493628</v>
       </c>
       <c r="G84" t="n">
-        <v>0.5526315789473685</v>
+        <v>0.0444789554761804</v>
       </c>
       <c r="H84" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.0287163257598877</v>
       </c>
       <c r="I84" t="n">
-        <v>1.282051282051282</v>
+        <v>0.0585502593413643</v>
       </c>
       <c r="J84" t="n">
-        <v>0.9459459459459459</v>
+        <v>0.104630180767604</v>
       </c>
     </row>
     <row r="85">
@@ -3339,137 +3339,137 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>team_season_deep_progressions_conceded_pg</t>
+          <t>team_season_shots_from_free_kicks_pg</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>33.59521592442645</v>
+        <v>0.8848313090418353</v>
       </c>
       <c r="C86" t="n">
-        <v>40.35223117854697</v>
+        <v>0.7567646593962383</v>
       </c>
       <c r="D86" t="n">
-        <v>-16.75</v>
+        <v>16.92</v>
       </c>
       <c r="E86" t="n">
-        <v>4.937157014312969</v>
+        <v>0.2683273801524798</v>
       </c>
       <c r="F86" t="n">
-        <v>3.203845406180208</v>
+        <v>0.1170382509932392</v>
       </c>
       <c r="G86" t="n">
-        <v>25.73684210526316</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="H86" t="n">
-        <v>34.91891891891892</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="I86" t="n">
-        <v>39.275</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="J86" t="n">
-        <v>45.62162162162162</v>
+        <v>0.9459459459459459</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_sp_conceded</t>
+          <t>team_season_deep_progressions_conceded_pg</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.00516494877111286</v>
+        <v>33.59521592442645</v>
       </c>
       <c r="C87" t="n">
-        <v>0.006195264328069177</v>
+        <v>40.35223117854697</v>
       </c>
       <c r="D87" t="n">
-        <v>-16.63</v>
+        <v>-16.75</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001021593807544206</v>
+        <v>4.937157014312969</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0008459211213653576</v>
+        <v>3.203845406180208</v>
       </c>
       <c r="G87" t="n">
-        <v>0.00383426892728965</v>
+        <v>25.73684210526316</v>
       </c>
       <c r="H87" t="n">
-        <v>0.00468680388978718</v>
+        <v>34.91891891891892</v>
       </c>
       <c r="I87" t="n">
-        <v>0.00620138251482259</v>
+        <v>39.275</v>
       </c>
       <c r="J87" t="n">
-        <v>0.00755179423866179</v>
+        <v>45.62162162162162</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>team_season_throw_in_shot_ratio</t>
+          <t>team_season_corner_xg_pg</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.002969864076978012</v>
+        <v>0.1664438369577781</v>
       </c>
       <c r="C88" t="n">
-        <v>0.003544848996982378</v>
+        <v>0.1435262175531049</v>
       </c>
       <c r="D88" t="n">
-        <v>-16.22</v>
+        <v>15.97</v>
       </c>
       <c r="E88" t="n">
-        <v>0.001360399586411149</v>
+        <v>0.02740041135142714</v>
       </c>
       <c r="F88" t="n">
-        <v>0.002640810955760052</v>
+        <v>0.03535247943886852</v>
       </c>
       <c r="G88" t="n">
-        <v>0.001102535832414553</v>
+        <v>0.128520331135951</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>0.09470132302100721</v>
       </c>
       <c r="I88" t="n">
-        <v>0.004519774011299435</v>
+        <v>0.1989932579821662</v>
       </c>
       <c r="J88" t="n">
-        <v>0.009422850412249705</v>
+        <v>0.2426029189342731</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_xg_pg</t>
+          <t>team_season_xg_per_sp_conceded</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.2912031364005609</v>
+        <v>0.005229438256328244</v>
       </c>
       <c r="C89" t="n">
-        <v>0.250944697264898</v>
+        <v>0.00619121003723808</v>
       </c>
       <c r="D89" t="n">
-        <v>16.04</v>
+        <v>-15.53</v>
       </c>
       <c r="E89" t="n">
-        <v>0.02632590050345981</v>
+        <v>0.0009214017834855603</v>
       </c>
       <c r="F89" t="n">
-        <v>0.04393779489324495</v>
+        <v>0.0008271469467857238</v>
       </c>
       <c r="G89" t="n">
-        <v>0.2697538000188376</v>
+        <v>0.00399370751119172</v>
       </c>
       <c r="H89" t="n">
-        <v>0.1643923555353755</v>
+        <v>0.00474321096221362</v>
       </c>
       <c r="I89" t="n">
-        <v>0.3265067890573006</v>
+        <v>0.00623463891456433</v>
       </c>
       <c r="J89" t="n">
-        <v>0.3268119686675307</v>
+        <v>0.00757743440510483</v>
       </c>
     </row>
     <row r="90">
@@ -3509,341 +3509,341 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_sp</t>
+          <t>team_season_op_shots_outside_box_pg</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.006576151671601642</v>
+        <v>3.790411605937922</v>
       </c>
       <c r="C91" t="n">
-        <v>0.005723469128250083</v>
+        <v>3.296939044307466</v>
       </c>
       <c r="D91" t="n">
-        <v>14.9</v>
+        <v>14.97</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0003510880388443259</v>
+        <v>0.5756006461624553</v>
       </c>
       <c r="F91" t="n">
-        <v>0.001051405900053205</v>
+        <v>0.559415594131574</v>
       </c>
       <c r="G91" t="n">
-        <v>0.00610157421657017</v>
+        <v>2.975</v>
       </c>
       <c r="H91" t="n">
-        <v>0.00380445165552843</v>
+        <v>2.351351351351351</v>
       </c>
       <c r="I91" t="n">
-        <v>0.00708218225515194</v>
+        <v>4.342105263157895</v>
       </c>
       <c r="J91" t="n">
-        <v>0.00769922796865464</v>
+        <v>4.184210526315789</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_shots_outside_box_pg</t>
+          <t>team_season_obv_pass_conceded_pg</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>3.785411605937921</v>
+        <v>0.6439764828692403</v>
       </c>
       <c r="C92" t="n">
-        <v>3.298693430272378</v>
+        <v>0.7549609260149992</v>
       </c>
       <c r="D92" t="n">
-        <v>14.75</v>
+        <v>-14.7</v>
       </c>
       <c r="E92" t="n">
-        <v>0.5844944387561443</v>
+        <v>0.06030143076244333</v>
       </c>
       <c r="F92" t="n">
-        <v>0.5587239545882832</v>
+        <v>0.08455755235386314</v>
       </c>
       <c r="G92" t="n">
-        <v>2.95</v>
+        <v>0.5873507525967924</v>
       </c>
       <c r="H92" t="n">
-        <v>2.351351351351351</v>
+        <v>0.6217257374444524</v>
       </c>
       <c r="I92" t="n">
-        <v>4.342105263157895</v>
+        <v>0.7379888283709685</v>
       </c>
       <c r="J92" t="n">
-        <v>4.184210526315789</v>
+        <v>0.929858107223279</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_pass_conceded_pg</t>
+          <t>team_season_penalties_conceded_pg</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.6439765000615305</v>
+        <v>0.1656477732793522</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7549608884806142</v>
+        <v>0.1941257046520204</v>
       </c>
       <c r="D93" t="n">
-        <v>-14.7</v>
+        <v>-14.67</v>
       </c>
       <c r="E93" t="n">
-        <v>0.06030142479321948</v>
+        <v>0.08061394923842059</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08455752039188509</v>
+        <v>0.05464814066676434</v>
       </c>
       <c r="G93" t="n">
-        <v>0.5873508114171656</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="H93" t="n">
-        <v>0.6217256206515673</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="I93" t="n">
-        <v>0.7379888203472663</v>
+        <v>0.2368421052631579</v>
       </c>
       <c r="J93" t="n">
-        <v>0.9298578307239546</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>team_season_penalties_conceded_pg</t>
+          <t>team_season_possession</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.1656477732793522</v>
+        <v>0.552489978140619</v>
       </c>
       <c r="C94" t="n">
-        <v>0.1941257046520204</v>
+        <v>0.4819487990369902</v>
       </c>
       <c r="D94" t="n">
-        <v>-14.67</v>
+        <v>14.64</v>
       </c>
       <c r="E94" t="n">
-        <v>0.08061394923842059</v>
+        <v>0.04858542399047803</v>
       </c>
       <c r="F94" t="n">
-        <v>0.05464814066676434</v>
+        <v>0.03597766524408511</v>
       </c>
       <c r="G94" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.508075402853411</v>
       </c>
       <c r="H94" t="n">
-        <v>0.1081081081081081</v>
+        <v>0.4303555848604967</v>
       </c>
       <c r="I94" t="n">
-        <v>0.2368421052631579</v>
+        <v>0.6302180681940354</v>
       </c>
       <c r="J94" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5558936219915722</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>team_season_possession</t>
+          <t>team_season_ppda</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.5524899781406191</v>
+        <v>8.066800752632428</v>
       </c>
       <c r="C95" t="n">
-        <v>0.4819487990369902</v>
+        <v>9.42464867259935</v>
       </c>
       <c r="D95" t="n">
-        <v>14.64</v>
+        <v>-14.41</v>
       </c>
       <c r="E95" t="n">
-        <v>0.04858542399047805</v>
+        <v>1.643543884409861</v>
       </c>
       <c r="F95" t="n">
-        <v>0.03597766524408506</v>
+        <v>1.107308168331428</v>
       </c>
       <c r="G95" t="n">
-        <v>0.5080754028534111</v>
+        <v>5.850039463299132</v>
       </c>
       <c r="H95" t="n">
-        <v>0.4303555848604968</v>
+        <v>7.626794258373206</v>
       </c>
       <c r="I95" t="n">
-        <v>0.6302180681940356</v>
+        <v>9.730143540669857</v>
       </c>
       <c r="J95" t="n">
-        <v>0.5558936219915721</v>
+        <v>11.08748824082785</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>team_season_ppda</t>
+          <t>team_season_free_kick_goal_ratio_conceded</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>8.066800752632428</v>
+        <v>0.00369320770525905</v>
       </c>
       <c r="C96" t="n">
-        <v>9.42464867259935</v>
+        <v>0.004283834335640969</v>
       </c>
       <c r="D96" t="n">
-        <v>-14.41</v>
+        <v>-13.79</v>
       </c>
       <c r="E96" t="n">
-        <v>1.643543884409861</v>
+        <v>0.002572626739066479</v>
       </c>
       <c r="F96" t="n">
-        <v>1.107308168331428</v>
+        <v>0.00275614141544844</v>
       </c>
       <c r="G96" t="n">
-        <v>5.850039463299132</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>7.626794258373206</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>9.730143540669857</v>
+        <v>0.00702247191011236</v>
       </c>
       <c r="J96" t="n">
-        <v>11.08748824082785</v>
+        <v>0.00806451612903226</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>team_season_free_kick_goal_ratio_conceded</t>
+          <t>team_season_op_passes_conceded_pg</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.00369320770525905</v>
+        <v>366.2219770580297</v>
       </c>
       <c r="C97" t="n">
-        <v>0.004283834335640969</v>
+        <v>424.548506401138</v>
       </c>
       <c r="D97" t="n">
-        <v>-13.79</v>
+        <v>-13.74</v>
       </c>
       <c r="E97" t="n">
-        <v>0.002572626739066479</v>
+        <v>46.14641761619146</v>
       </c>
       <c r="F97" t="n">
-        <v>0.00275614141544844</v>
+        <v>26.65216312870563</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>293.1842105263158</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>381.1052631578947</v>
       </c>
       <c r="I97" t="n">
-        <v>0.00702247191011236</v>
+        <v>413.925</v>
       </c>
       <c r="J97" t="n">
-        <v>0.00806451612903226</v>
+        <v>461.1081081081081</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_passes_conceded_pg</t>
+          <t>team_season_sp_shot_ratio_conceded</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>366.2219770580297</v>
+        <v>0.06155515370004892</v>
       </c>
       <c r="C98" t="n">
-        <v>424.548506401138</v>
+        <v>0.07122833641811677</v>
       </c>
       <c r="D98" t="n">
-        <v>-13.74</v>
+        <v>-13.58</v>
       </c>
       <c r="E98" t="n">
-        <v>46.14641761619146</v>
+        <v>0.009145119536963515</v>
       </c>
       <c r="F98" t="n">
-        <v>26.65216312870563</v>
+        <v>0.00779644481741924</v>
       </c>
       <c r="G98" t="n">
-        <v>293.1842105263158</v>
+        <v>0.0513126491646778</v>
       </c>
       <c r="H98" t="n">
-        <v>381.1052631578947</v>
+        <v>0.0598489250435793</v>
       </c>
       <c r="I98" t="n">
-        <v>413.925</v>
+        <v>0.0715421303656598</v>
       </c>
       <c r="J98" t="n">
-        <v>461.1081081081081</v>
+        <v>0.08190709046454769</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>team_season_passes_inside_box_conceded_pg</t>
+          <t>team_season_sp_xg_pg</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1.41136302294197</v>
+        <v>0.287439701309498</v>
       </c>
       <c r="C99" t="n">
-        <v>1.629856171961435</v>
+        <v>0.2531126699374156</v>
       </c>
       <c r="D99" t="n">
-        <v>-13.41</v>
+        <v>13.56</v>
       </c>
       <c r="E99" t="n">
-        <v>0.2434866829205695</v>
+        <v>0.02459278805328528</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2844982846067622</v>
+        <v>0.04461126129977988</v>
       </c>
       <c r="G99" t="n">
-        <v>1.078947368421053</v>
+        <v>0.2664011874701828</v>
       </c>
       <c r="H99" t="n">
-        <v>1.216216216216216</v>
+        <v>0.1612744642617671</v>
       </c>
       <c r="I99" t="n">
-        <v>1.641025641025641</v>
+        <v>0.3156549791112924</v>
       </c>
       <c r="J99" t="n">
-        <v>2.135135135135135</v>
+        <v>0.341184274930703</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_shot_ratio_conceded</t>
+          <t>team_season_passes_inside_box_conceded_pg</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.06167830640940852</v>
+        <v>1.41136302294197</v>
       </c>
       <c r="C100" t="n">
-        <v>0.07118560137538173</v>
+        <v>1.629856171961435</v>
       </c>
       <c r="D100" t="n">
-        <v>-13.36</v>
+        <v>-13.41</v>
       </c>
       <c r="E100" t="n">
-        <v>0.008992876964463029</v>
+        <v>0.2434866829205695</v>
       </c>
       <c r="F100" t="n">
-        <v>0.007741978931469345</v>
+        <v>0.2844982846067622</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0513126491646778</v>
+        <v>1.078947368421053</v>
       </c>
       <c r="H100" t="n">
-        <v>0.0598489250435793</v>
+        <v>1.216216216216216</v>
       </c>
       <c r="I100" t="n">
-        <v>0.0715421303656598</v>
+        <v>1.641025641025641</v>
       </c>
       <c r="J100" t="n">
-        <v>0.08190709046454769</v>
+        <v>2.135135135135135</v>
       </c>
     </row>
     <row r="101">
@@ -3883,69 +3883,69 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_conceded_pg</t>
+          <t>team_season_successful_crosses_into_box_pg</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1.371536236183464</v>
+        <v>2.489385964912281</v>
       </c>
       <c r="C102" t="n">
-        <v>1.57729426703172</v>
+        <v>2.204038248775091</v>
       </c>
       <c r="D102" t="n">
-        <v>-13.04</v>
+        <v>12.95</v>
       </c>
       <c r="E102" t="n">
-        <v>0.1093913636297582</v>
+        <v>0.2389599109210435</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1874766037084499</v>
+        <v>0.3958862931882018</v>
       </c>
       <c r="G102" t="n">
-        <v>1.230434442750919</v>
+        <v>2.175</v>
       </c>
       <c r="H102" t="n">
-        <v>1.28881270595287</v>
+        <v>1.694444444444444</v>
       </c>
       <c r="I102" t="n">
-        <v>1.498709594830871</v>
+        <v>2.684210526315789</v>
       </c>
       <c r="J102" t="n">
-        <v>1.866564316416366</v>
+        <v>3.342105263157895</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>team_season_successful_crosses_into_box_pg</t>
+          <t>team_season_obv_shot_conceded_pg</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>2.489385964912281</v>
+        <v>-0.08953431156414905</v>
       </c>
       <c r="C103" t="n">
-        <v>2.204038248775091</v>
+        <v>-0.07932731463225948</v>
       </c>
       <c r="D103" t="n">
-        <v>12.95</v>
+        <v>-12.87</v>
       </c>
       <c r="E103" t="n">
-        <v>0.2389599109210435</v>
+        <v>0.1027453099848022</v>
       </c>
       <c r="F103" t="n">
-        <v>0.3958862931882018</v>
+        <v>0.08503848890650778</v>
       </c>
       <c r="G103" t="n">
-        <v>2.175</v>
+        <v>-0.2689379402681401</v>
       </c>
       <c r="H103" t="n">
-        <v>1.694444444444444</v>
+        <v>-0.2001950507228439</v>
       </c>
       <c r="I103" t="n">
-        <v>2.684210526315789</v>
+        <v>-0.01631827740684936</v>
       </c>
       <c r="J103" t="n">
-        <v>3.342105263157895</v>
+        <v>0.08717053569853306</v>
       </c>
     </row>
     <row r="104">
@@ -3985,613 +3985,613 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>team_season_passes_conceded_pg</t>
+          <t>team_season_xg_per_sp</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>418.9683940620783</v>
+        <v>0.006490843468963538</v>
       </c>
       <c r="C105" t="n">
-        <v>478.2865497076023</v>
+        <v>0.005773455855729417</v>
       </c>
       <c r="D105" t="n">
-        <v>-12.4</v>
+        <v>12.43</v>
       </c>
       <c r="E105" t="n">
-        <v>45.92584041724758</v>
+        <v>0.0002845872423106569</v>
       </c>
       <c r="F105" t="n">
-        <v>26.25440671870697</v>
+        <v>0.001079952115976986</v>
       </c>
       <c r="G105" t="n">
-        <v>343.7631578947368</v>
+        <v>0.006121521904355</v>
       </c>
       <c r="H105" t="n">
-        <v>434.6842105263158</v>
+        <v>0.00373229533252414</v>
       </c>
       <c r="I105" t="n">
-        <v>464.9</v>
+        <v>0.00684679761214039</v>
       </c>
       <c r="J105" t="n">
-        <v>514.9459459459459</v>
+        <v>0.008037817825534961</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>team_season_failed_dribbles_pg</t>
+          <t>team_season_passes_conceded_pg</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>7.025755735492578</v>
+        <v>418.9683940620783</v>
       </c>
       <c r="C106" t="n">
-        <v>6.252173225857437</v>
+        <v>478.2865497076023</v>
       </c>
       <c r="D106" t="n">
-        <v>12.37</v>
+        <v>-12.4</v>
       </c>
       <c r="E106" t="n">
-        <v>0.5980651219207781</v>
+        <v>45.92584041724758</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9383949621000571</v>
+        <v>26.25440671870697</v>
       </c>
       <c r="G106" t="n">
-        <v>5.973684210526316</v>
+        <v>343.7631578947368</v>
       </c>
       <c r="H106" t="n">
-        <v>4.815789473684211</v>
+        <v>434.6842105263158</v>
       </c>
       <c r="I106" t="n">
-        <v>7.425</v>
+        <v>464.9</v>
       </c>
       <c r="J106" t="n">
-        <v>7.861111111111111</v>
+        <v>514.9459459459459</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>team_season_gk_pass_distance</t>
+          <t>team_season_failed_dribbles_pg</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>40.2203447151383</v>
+        <v>7.025755735492578</v>
       </c>
       <c r="C107" t="n">
-        <v>45.86493617617273</v>
+        <v>6.252173225857437</v>
       </c>
       <c r="D107" t="n">
-        <v>-12.31</v>
+        <v>12.37</v>
       </c>
       <c r="E107" t="n">
-        <v>5.478413365009085</v>
+        <v>0.5980651219207781</v>
       </c>
       <c r="F107" t="n">
-        <v>3.921266112459055</v>
+        <v>0.9383949621000571</v>
       </c>
       <c r="G107" t="n">
-        <v>33.53724660129932</v>
+        <v>5.973684210526316</v>
       </c>
       <c r="H107" t="n">
-        <v>39.52570268146796</v>
+        <v>4.815789473684211</v>
       </c>
       <c r="I107" t="n">
-        <v>46.44661016949153</v>
+        <v>7.425</v>
       </c>
       <c r="J107" t="n">
-        <v>53.1195681653809</v>
+        <v>7.861111111111111</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_dribble_carry_conceded_pg</t>
+          <t>team_season_gk_pass_distance</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.6048321593870055</v>
+        <v>40.22034344566148</v>
       </c>
       <c r="C108" t="n">
-        <v>0.6877254910026228</v>
+        <v>45.86493944513704</v>
       </c>
       <c r="D108" t="n">
-        <v>-12.05</v>
+        <v>-12.31</v>
       </c>
       <c r="E108" t="n">
-        <v>0.1075313028756787</v>
+        <v>5.478412625812814</v>
       </c>
       <c r="F108" t="n">
-        <v>0.09360752756375915</v>
+        <v>3.921266722548947</v>
       </c>
       <c r="G108" t="n">
-        <v>0.5206260034128239</v>
+        <v>33.53724660129932</v>
       </c>
       <c r="H108" t="n">
-        <v>0.517466686326205</v>
+        <v>39.52570268146796</v>
       </c>
       <c r="I108" t="n">
-        <v>0.7428263483569026</v>
+        <v>46.44661016949153</v>
       </c>
       <c r="J108" t="n">
-        <v>0.8369584769794816</v>
+        <v>53.1195681653809</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>team_season_total_dribbles_pg</t>
+          <t>team_season_obv_dribble_carry_conceded_pg</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>17.65349527665317</v>
+        <v>0.6048321429660918</v>
       </c>
       <c r="C109" t="n">
-        <v>15.77509878299352</v>
+        <v>0.6877255046487583</v>
       </c>
       <c r="D109" t="n">
-        <v>11.91</v>
+        <v>-12.05</v>
       </c>
       <c r="E109" t="n">
-        <v>1.771467868714678</v>
+        <v>0.1075313635700155</v>
       </c>
       <c r="F109" t="n">
-        <v>1.704796015988277</v>
+        <v>0.09360752812382599</v>
       </c>
       <c r="G109" t="n">
-        <v>14.76315789473684</v>
+        <v>0.520625972434094</v>
       </c>
       <c r="H109" t="n">
-        <v>12.83783783783784</v>
+        <v>0.5174667494673584</v>
       </c>
       <c r="I109" t="n">
-        <v>19.15789473684211</v>
+        <v>0.742826434597373</v>
       </c>
       <c r="J109" t="n">
-        <v>19.13513513513514</v>
+        <v>0.836958532858836</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>team_season_fhalf_counterpressures_pg</t>
+          <t>team_season_obv_conceded_pg</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>21.99517543859649</v>
+        <v>1.260910036816047</v>
       </c>
       <c r="C110" t="n">
-        <v>19.70364838522733</v>
+        <v>1.432561501562248</v>
       </c>
       <c r="D110" t="n">
-        <v>11.63</v>
+        <v>-11.98</v>
       </c>
       <c r="E110" t="n">
-        <v>1.894143070136115</v>
+        <v>0.1345959647769361</v>
       </c>
       <c r="F110" t="n">
-        <v>2.411450425308023</v>
+        <v>0.1772433603570068</v>
       </c>
       <c r="G110" t="n">
-        <v>19.97368421052632</v>
+        <v>1.087132340440383</v>
       </c>
       <c r="H110" t="n">
-        <v>14.48648648648649</v>
+        <v>1.074575014804539</v>
       </c>
       <c r="I110" t="n">
-        <v>24.28947368421053</v>
+        <v>1.431164395064116</v>
       </c>
       <c r="J110" t="n">
-        <v>23.02702702702703</v>
+        <v>1.663307008157308</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>team_season_completed_dribbles_pg</t>
+          <t>team_season_total_dribbles_pg</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>10.62773954116059</v>
+        <v>17.65349527665317</v>
       </c>
       <c r="C111" t="n">
-        <v>9.522925557136084</v>
+        <v>15.77509878299352</v>
       </c>
       <c r="D111" t="n">
-        <v>11.6</v>
+        <v>11.91</v>
       </c>
       <c r="E111" t="n">
-        <v>1.314860844924908</v>
+        <v>1.771467868714678</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9364895726340708</v>
+        <v>1.704796015988277</v>
       </c>
       <c r="G111" t="n">
-        <v>8.789473684210526</v>
+        <v>14.76315789473684</v>
       </c>
       <c r="H111" t="n">
-        <v>8</v>
+        <v>12.83783783783784</v>
       </c>
       <c r="I111" t="n">
-        <v>12.02631578947368</v>
+        <v>19.15789473684211</v>
       </c>
       <c r="J111" t="n">
-        <v>11.59459459459459</v>
+        <v>19.13513513513514</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>team_season_goals_from_free_kicks_conceded_pg</t>
+          <t>team_season_fhalf_counterpressures_pg</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.06195681511470985</v>
+        <v>21.99517543859649</v>
       </c>
       <c r="C112" t="n">
-        <v>0.07004636215162531</v>
+        <v>19.70364838522733</v>
       </c>
       <c r="D112" t="n">
-        <v>-11.55</v>
+        <v>11.63</v>
       </c>
       <c r="E112" t="n">
-        <v>0.04676026701539502</v>
+        <v>1.894143070136115</v>
       </c>
       <c r="F112" t="n">
-        <v>0.04499120576500659</v>
+        <v>2.411450425308023</v>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>19.97368421052632</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>14.48648648648649</v>
       </c>
       <c r="I112" t="n">
-        <v>0.1282051282051282</v>
+        <v>24.28947368421053</v>
       </c>
       <c r="J112" t="n">
-        <v>0.1351351351351351</v>
+        <v>23.02702702702703</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>team_season_corner_shot_ratio_conceded</t>
+          <t>team_season_completed_dribbles_pg</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.3329410375410444</v>
+        <v>10.62773954116059</v>
       </c>
       <c r="C113" t="n">
-        <v>0.3755443597192635</v>
+        <v>9.522925557136084</v>
       </c>
       <c r="D113" t="n">
-        <v>-11.34</v>
+        <v>11.6</v>
       </c>
       <c r="E113" t="n">
-        <v>0.04095498340209167</v>
+        <v>1.314860844924908</v>
       </c>
       <c r="F113" t="n">
-        <v>0.05644660934221625</v>
+        <v>0.9364895726340708</v>
       </c>
       <c r="G113" t="n">
-        <v>0.277027027027027</v>
+        <v>8.789473684210526</v>
       </c>
       <c r="H113" t="n">
-        <v>0.305785123966942</v>
+        <v>8</v>
       </c>
       <c r="I113" t="n">
-        <v>0.365979381443299</v>
+        <v>12.02631578947368</v>
       </c>
       <c r="J113" t="n">
-        <v>0.531645569620253</v>
+        <v>11.59459459459459</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>team_season_fhalf_pressures_ratio</t>
+          <t>team_season_goals_from_free_kicks_conceded_pg</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.4739935586709375</v>
+        <v>0.06195681511470985</v>
       </c>
       <c r="C114" t="n">
-        <v>0.426094708653722</v>
+        <v>0.07004636215162531</v>
       </c>
       <c r="D114" t="n">
-        <v>11.24</v>
+        <v>-11.55</v>
       </c>
       <c r="E114" t="n">
-        <v>0.04299621245375745</v>
+        <v>0.04676026701539502</v>
       </c>
       <c r="F114" t="n">
-        <v>0.03235508258079525</v>
+        <v>0.04499120576500659</v>
       </c>
       <c r="G114" t="n">
-        <v>0.4390857622143007</v>
+        <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>0.3653077537969625</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0.5480646533390047</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="J114" t="n">
-        <v>0.4790996784565916</v>
+        <v>0.1351351351351351</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>team_season_high_press_shots_conceded_pg</t>
+          <t>team_season_corner_shot_ratio_conceded</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2.076302294197031</v>
+        <v>0.3329410375410444</v>
       </c>
       <c r="C115" t="n">
-        <v>2.33371792845477</v>
+        <v>0.3755443597192635</v>
       </c>
       <c r="D115" t="n">
-        <v>-11.03</v>
+        <v>-11.34</v>
       </c>
       <c r="E115" t="n">
-        <v>0.4337547203026083</v>
+        <v>0.04095498340209167</v>
       </c>
       <c r="F115" t="n">
-        <v>0.3472909112910297</v>
+        <v>0.05644660934221625</v>
       </c>
       <c r="G115" t="n">
-        <v>1.605263157894737</v>
+        <v>0.277027027027027</v>
       </c>
       <c r="H115" t="n">
-        <v>1.72972972972973</v>
+        <v>0.305785123966942</v>
       </c>
       <c r="I115" t="n">
-        <v>2.7</v>
+        <v>0.365979381443299</v>
       </c>
       <c r="J115" t="n">
-        <v>3</v>
+        <v>0.531645569620253</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_corner_conceded</t>
+          <t>team_season_fhalf_pressures_ratio</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.03105599900923682</v>
+        <v>0.4739935586709375</v>
       </c>
       <c r="C116" t="n">
-        <v>0.03490035109226005</v>
+        <v>0.426094708653722</v>
       </c>
       <c r="D116" t="n">
-        <v>-11.02</v>
+        <v>11.24</v>
       </c>
       <c r="E116" t="n">
-        <v>0.009493956106326928</v>
+        <v>0.04299621245375745</v>
       </c>
       <c r="F116" t="n">
-        <v>0.006899850481885332</v>
+        <v>0.03235508258079525</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0202643565229467</v>
+        <v>0.4390857622143007</v>
       </c>
       <c r="H116" t="n">
-        <v>0.0244605222487832</v>
+        <v>0.3653077537969625</v>
       </c>
       <c r="I116" t="n">
-        <v>0.0443727000285003</v>
+        <v>0.5480646533390047</v>
       </c>
       <c r="J116" t="n">
-        <v>0.0464455266542073</v>
+        <v>0.4790996784565916</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>team_season_crosses_into_box_pg</t>
+          <t>team_season_high_press_shots_conceded_pg</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>9.578171390013498</v>
+        <v>2.076302294197031</v>
       </c>
       <c r="C117" t="n">
-        <v>8.733899689162847</v>
+        <v>2.33371792845477</v>
       </c>
       <c r="D117" t="n">
-        <v>9.67</v>
+        <v>-11.03</v>
       </c>
       <c r="E117" t="n">
-        <v>1.026251291714332</v>
+        <v>0.4337547203026083</v>
       </c>
       <c r="F117" t="n">
-        <v>1.231149789256979</v>
+        <v>0.3472909112910297</v>
       </c>
       <c r="G117" t="n">
-        <v>8.897435897435898</v>
+        <v>1.605263157894737</v>
       </c>
       <c r="H117" t="n">
-        <v>7.222222222222222</v>
+        <v>1.72972972972973</v>
       </c>
       <c r="I117" t="n">
-        <v>11.3421052631579</v>
+        <v>2.7</v>
       </c>
       <c r="J117" t="n">
-        <v>11.42105263157895</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_defensive_action_pg</t>
+          <t>team_season_xg_per_corner_conceded</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.1804436284182442</v>
+        <v>0.03245535250822122</v>
       </c>
       <c r="C118" t="n">
-        <v>0.1996037117679667</v>
+        <v>0.03611145620023859</v>
       </c>
       <c r="D118" t="n">
-        <v>-9.6</v>
+        <v>-10.12</v>
       </c>
       <c r="E118" t="n">
-        <v>0.06890682706950817</v>
+        <v>0.009774858420289398</v>
       </c>
       <c r="F118" t="n">
-        <v>0.05010005463076828</v>
+        <v>0.006900281280753123</v>
       </c>
       <c r="G118" t="n">
-        <v>0.07465087627305796</v>
+        <v>0.0222742251447729</v>
       </c>
       <c r="H118" t="n">
-        <v>0.1130156201889386</v>
+        <v>0.0253130127401913</v>
       </c>
       <c r="I118" t="n">
-        <v>0.2660184082790063</v>
+        <v>0.0471431239176605</v>
       </c>
       <c r="J118" t="n">
-        <v>0.2802055508486535</v>
+        <v>0.0495496097999283</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_xg_per_shot</t>
+          <t>team_season_crosses_into_box_pg</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.103967420835041</v>
+        <v>9.578171390013498</v>
       </c>
       <c r="C119" t="n">
-        <v>0.09491014788861711</v>
+        <v>8.733899689162847</v>
       </c>
       <c r="D119" t="n">
-        <v>9.539999999999999</v>
+        <v>9.67</v>
       </c>
       <c r="E119" t="n">
-        <v>0.00682350657069197</v>
+        <v>1.026251291714332</v>
       </c>
       <c r="F119" t="n">
-        <v>0.01137859242036655</v>
+        <v>1.231149789256979</v>
       </c>
       <c r="G119" t="n">
-        <v>0.09807293510075087</v>
+        <v>8.897435897435898</v>
       </c>
       <c r="H119" t="n">
-        <v>0.07839394111137886</v>
+        <v>7.222222222222222</v>
       </c>
       <c r="I119" t="n">
-        <v>0.1127070857576304</v>
+        <v>11.3421052631579</v>
       </c>
       <c r="J119" t="n">
-        <v>0.1167121865283484</v>
+        <v>11.42105263157895</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kick_xg_conceded_pg</t>
+          <t>team_season_aggression</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.03528899709807206</v>
+        <v>0.189399586565269</v>
       </c>
       <c r="C120" t="n">
-        <v>0.03223136964225966</v>
+        <v>0.1730076368325669</v>
       </c>
       <c r="D120" t="n">
-        <v>9.49</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="E120" t="n">
-        <v>0.005767441873740402</v>
+        <v>0.01896518495718425</v>
       </c>
       <c r="F120" t="n">
-        <v>0.014497791615858</v>
+        <v>0.01256901416949728</v>
       </c>
       <c r="G120" t="n">
-        <v>0.0292888731744729</v>
+        <v>0.1660240820926508</v>
       </c>
       <c r="H120" t="n">
-        <v>0.0154603613344462</v>
+        <v>0.1553915311615517</v>
       </c>
       <c r="I120" t="n">
-        <v>0.0434187533284881</v>
+        <v>0.212666338097585</v>
       </c>
       <c r="J120" t="n">
-        <v>0.07372229234189601</v>
+        <v>0.1924015959030548</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>team_season_aggression</t>
+          <t>team_season_fhalf_pressures_pg</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.189399586565269</v>
+        <v>64.1499257759784</v>
       </c>
       <c r="C121" t="n">
-        <v>0.1730076368325669</v>
+        <v>58.70475475475475</v>
       </c>
       <c r="D121" t="n">
-        <v>9.470000000000001</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="E121" t="n">
-        <v>0.01896518495718425</v>
+        <v>7.442227451614665</v>
       </c>
       <c r="F121" t="n">
-        <v>0.01256901416949728</v>
+        <v>6.112535924129209</v>
       </c>
       <c r="G121" t="n">
-        <v>0.1660240820926508</v>
+        <v>55.10526315789474</v>
       </c>
       <c r="H121" t="n">
-        <v>0.1553915311615517</v>
+        <v>49.4054054054054</v>
       </c>
       <c r="I121" t="n">
-        <v>0.212666338097585</v>
+        <v>73.56410256410257</v>
       </c>
       <c r="J121" t="n">
-        <v>0.1924015959030548</v>
+        <v>68.54054054054055</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>team_season_fhalf_pressures_pg</t>
+          <t>team_season_np_xg_per_shot</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>64.1499257759784</v>
+        <v>0.0998189656813208</v>
       </c>
       <c r="C122" t="n">
-        <v>58.70475475475475</v>
+        <v>0.09226612013530221</v>
       </c>
       <c r="D122" t="n">
-        <v>9.279999999999999</v>
+        <v>8.19</v>
       </c>
       <c r="E122" t="n">
-        <v>7.442227451614665</v>
+        <v>0.007029921442387493</v>
       </c>
       <c r="F122" t="n">
-        <v>6.112535924129209</v>
+        <v>0.01097550608632741</v>
       </c>
       <c r="G122" t="n">
-        <v>55.10526315789474</v>
+        <v>0.09387324980793633</v>
       </c>
       <c r="H122" t="n">
-        <v>49.4054054054054</v>
+        <v>0.07779027270032214</v>
       </c>
       <c r="I122" t="n">
-        <v>73.56410256410257</v>
+        <v>0.1080128950436329</v>
       </c>
       <c r="J122" t="n">
-        <v>68.54054054054055</v>
+        <v>0.1144627435625762</v>
       </c>
     </row>
     <row r="123">
@@ -4631,171 +4631,171 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_direct_free_kick_conceded</t>
+          <t>team_season_free_kick_goal_ratio</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.06190079933236003</v>
+        <v>0.003976574505210861</v>
       </c>
       <c r="C124" t="n">
-        <v>0.05762030689990755</v>
+        <v>0.00427950738209854</v>
       </c>
       <c r="D124" t="n">
-        <v>7.43</v>
+        <v>-7.08</v>
       </c>
       <c r="E124" t="n">
-        <v>0.005199443110566424</v>
+        <v>0.002479375714161759</v>
       </c>
       <c r="F124" t="n">
-        <v>0.02274791514495308</v>
+        <v>0.002603440161613254</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0546019388281781</v>
+        <v>0.001474926253687316</v>
       </c>
       <c r="H124" t="n">
-        <v>0.0403685461391102</v>
+        <v>0.001592356687898089</v>
       </c>
       <c r="I124" t="n">
-        <v>0.0668283826426456</v>
+        <v>0.006611570247933884</v>
       </c>
       <c r="J124" t="n">
-        <v>0.121077077729361</v>
+        <v>0.0101010101010101</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>team_season_free_kick_goal_ratio</t>
+          <t>team_season_counterpressures_pg</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.003976574505210861</v>
+        <v>30.95852226720648</v>
       </c>
       <c r="C125" t="n">
-        <v>0.00427950738209854</v>
+        <v>28.99987355776829</v>
       </c>
       <c r="D125" t="n">
-        <v>-7.08</v>
+        <v>6.75</v>
       </c>
       <c r="E125" t="n">
-        <v>0.002479375714161759</v>
+        <v>1.214086736412975</v>
       </c>
       <c r="F125" t="n">
-        <v>0.002603440161613254</v>
+        <v>2.470378720579085</v>
       </c>
       <c r="G125" t="n">
-        <v>0.001474926253687316</v>
+        <v>29.81578947368421</v>
       </c>
       <c r="H125" t="n">
-        <v>0.001592356687898089</v>
+        <v>23.05405405405405</v>
       </c>
       <c r="I125" t="n">
-        <v>0.006611570247933884</v>
+        <v>32.31578947368421</v>
       </c>
       <c r="J125" t="n">
-        <v>0.0101010101010101</v>
+        <v>32.13513513513514</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>team_season_counterpressures_pg</t>
+          <t>team_season_op_shot_distance</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>30.95852226720648</v>
+        <v>17.67343131012333</v>
       </c>
       <c r="C126" t="n">
-        <v>28.99987355776829</v>
+        <v>18.82274064396475</v>
       </c>
       <c r="D126" t="n">
-        <v>6.75</v>
+        <v>-6.11</v>
       </c>
       <c r="E126" t="n">
-        <v>1.214086736412975</v>
+        <v>0.5534881980513221</v>
       </c>
       <c r="F126" t="n">
-        <v>2.470378720579085</v>
+        <v>0.9702298811024712</v>
       </c>
       <c r="G126" t="n">
-        <v>29.81578947368421</v>
+        <v>16.83306465718283</v>
       </c>
       <c r="H126" t="n">
-        <v>23.05405405405405</v>
+        <v>17.28323876596715</v>
       </c>
       <c r="I126" t="n">
-        <v>32.31578947368421</v>
+        <v>18.30002613336267</v>
       </c>
       <c r="J126" t="n">
-        <v>32.13513513513514</v>
+        <v>20.4689742917937</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_shot_distance</t>
+          <t>team_season_passing_ratio</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>17.67113432547397</v>
+        <v>0.8050454346307051</v>
       </c>
       <c r="C127" t="n">
-        <v>18.82328940048198</v>
+        <v>0.7618280121882288</v>
       </c>
       <c r="D127" t="n">
-        <v>-6.12</v>
+        <v>5.67</v>
       </c>
       <c r="E127" t="n">
-        <v>0.5528513548162098</v>
+        <v>0.02383376207674619</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9698891189640305</v>
+        <v>0.02546053953621591</v>
       </c>
       <c r="G127" t="n">
-        <v>16.83306465718283</v>
+        <v>0.7768310574427265</v>
       </c>
       <c r="H127" t="n">
-        <v>17.28323698391879</v>
+        <v>0.7228949791091283</v>
       </c>
       <c r="I127" t="n">
-        <v>18.30002613336267</v>
+        <v>0.8392672277985327</v>
       </c>
       <c r="J127" t="n">
-        <v>20.46898024644309</v>
+        <v>0.798614810868407</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>team_season_passing_ratio</t>
+          <t>team_season_xg_per_direct_free_kick</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.8050454346307051</v>
+        <v>0.04662981144105546</v>
       </c>
       <c r="C128" t="n">
-        <v>0.7618280121882288</v>
+        <v>0.04938634391679789</v>
       </c>
       <c r="D128" t="n">
-        <v>5.67</v>
+        <v>-5.58</v>
       </c>
       <c r="E128" t="n">
-        <v>0.02383376207674619</v>
+        <v>0.01076035011622545</v>
       </c>
       <c r="F128" t="n">
-        <v>0.02546053953621591</v>
+        <v>0.01474586434175644</v>
       </c>
       <c r="G128" t="n">
-        <v>0.7768310574427265</v>
+        <v>0.03276655890724876</v>
       </c>
       <c r="H128" t="n">
-        <v>0.7228949791091283</v>
+        <v>0.03045747346348233</v>
       </c>
       <c r="I128" t="n">
-        <v>0.8392672277985327</v>
+        <v>0.06169948252764615</v>
       </c>
       <c r="J128" t="n">
-        <v>0.798614810868407</v>
+        <v>0.07744177391654566</v>
       </c>
     </row>
     <row r="129">
@@ -4903,239 +4903,239 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_direct_free_kick</t>
+          <t>team_season_successful_box_cross_ratio</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.05659101236548889</v>
+        <v>0.2766512379873568</v>
       </c>
       <c r="C132" t="n">
-        <v>0.05964739147318925</v>
+        <v>0.2914294128352456</v>
       </c>
       <c r="D132" t="n">
-        <v>-5.12</v>
+        <v>-5.07</v>
       </c>
       <c r="E132" t="n">
-        <v>0.006379186615237726</v>
+        <v>0.03797573988427499</v>
       </c>
       <c r="F132" t="n">
-        <v>0.01554848759079694</v>
+        <v>0.0316520186183494</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04905595020814375</v>
+        <v>0.2301587301587301</v>
       </c>
       <c r="H132" t="n">
-        <v>0.0321720110045539</v>
+        <v>0.2595419847328244</v>
       </c>
       <c r="I132" t="n">
-        <v>0.06614178960973566</v>
+        <v>0.3301587301587302</v>
       </c>
       <c r="J132" t="n">
-        <v>0.08714352155986585</v>
+        <v>0.3849372384937239</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>team_season_successful_box_cross_ratio</t>
+          <t>team_season_fhalf_counterpressures_ratio</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.2766512379873568</v>
+        <v>0.7095913393078026</v>
       </c>
       <c r="C133" t="n">
-        <v>0.2914294128352456</v>
+        <v>0.6776100493038452</v>
       </c>
       <c r="D133" t="n">
-        <v>-5.07</v>
+        <v>4.72</v>
       </c>
       <c r="E133" t="n">
-        <v>0.03797573988427499</v>
+        <v>0.03691643820461911</v>
       </c>
       <c r="F133" t="n">
-        <v>0.0316520186183494</v>
+        <v>0.03393382606375739</v>
       </c>
       <c r="G133" t="n">
-        <v>0.2301587301587301</v>
+        <v>0.6634615384615384</v>
       </c>
       <c r="H133" t="n">
-        <v>0.2595419847328244</v>
+        <v>0.6254980079681275</v>
       </c>
       <c r="I133" t="n">
-        <v>0.3301587301587302</v>
+        <v>0.751628664495114</v>
       </c>
       <c r="J133" t="n">
-        <v>0.3849372384937239</v>
+        <v>0.7405355493998154</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>team_season_fhalf_counterpressures_ratio</t>
+          <t>team_season_pace_towards_goal</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.7095913393078026</v>
+        <v>2.738770857503041</v>
       </c>
       <c r="C134" t="n">
-        <v>0.6776100493038452</v>
+        <v>2.869577495799411</v>
       </c>
       <c r="D134" t="n">
-        <v>4.72</v>
+        <v>-4.56</v>
       </c>
       <c r="E134" t="n">
-        <v>0.03691643820461911</v>
+        <v>0.3249733009709892</v>
       </c>
       <c r="F134" t="n">
-        <v>0.03393382606375739</v>
+        <v>0.137940222455914</v>
       </c>
       <c r="G134" t="n">
-        <v>0.6634615384615384</v>
+        <v>2.25403525825167</v>
       </c>
       <c r="H134" t="n">
-        <v>0.6254980079681275</v>
+        <v>2.559171474327383</v>
       </c>
       <c r="I134" t="n">
-        <v>0.751628664495114</v>
+        <v>3.151052221903349</v>
       </c>
       <c r="J134" t="n">
-        <v>0.7405355493998154</v>
+        <v>3.073878121590269</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>team_season_pace_towards_goal</t>
+          <t>team_season_gk_long_pass_ratio</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>2.736739016048447</v>
+        <v>0.4441287818061602</v>
       </c>
       <c r="C135" t="n">
-        <v>2.869734491607161</v>
+        <v>0.4250158023203682</v>
       </c>
       <c r="D135" t="n">
-        <v>-4.63</v>
+        <v>4.5</v>
       </c>
       <c r="E135" t="n">
-        <v>0.3255218997055148</v>
+        <v>0.0459223917406999</v>
       </c>
       <c r="F135" t="n">
-        <v>0.1381435023871962</v>
+        <v>0.05037958530474591</v>
       </c>
       <c r="G135" t="n">
-        <v>2.25403525825167</v>
+        <v>0.3863945578231293</v>
       </c>
       <c r="H135" t="n">
-        <v>2.559171474327384</v>
+        <v>0.3229744728079911</v>
       </c>
       <c r="I135" t="n">
-        <v>3.151052221903349</v>
+        <v>0.4991119005328597</v>
       </c>
       <c r="J135" t="n">
-        <v>3.073878121590269</v>
+        <v>0.4875816993464052</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>team_season_gk_long_pass_ratio</t>
+          <t>team_season_shots_from_direct_free_kicks_pg</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.4441287818061602</v>
+        <v>0.6312078272604589</v>
       </c>
       <c r="C136" t="n">
-        <v>0.4250158023203682</v>
+        <v>0.6043754280596386</v>
       </c>
       <c r="D136" t="n">
-        <v>4.5</v>
+        <v>4.44</v>
       </c>
       <c r="E136" t="n">
-        <v>0.0459223917406999</v>
+        <v>0.2006768937290486</v>
       </c>
       <c r="F136" t="n">
-        <v>0.05037958530474591</v>
+        <v>0.2539052582004353</v>
       </c>
       <c r="G136" t="n">
-        <v>0.3863945578231293</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="H136" t="n">
-        <v>0.3229744728079911</v>
+        <v>0.2368421052631579</v>
       </c>
       <c r="I136" t="n">
-        <v>0.4991119005328597</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="J136" t="n">
-        <v>0.4875816993464052</v>
+        <v>1.157894736842105</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>team_season_shots_from_direct_free_kicks_pg</t>
+          <t>team_season_aggressive_actions_pg</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.6312078272604589</v>
+        <v>78.90651147098515</v>
       </c>
       <c r="C137" t="n">
-        <v>0.6043754280596386</v>
+        <v>82.53893367051263</v>
       </c>
       <c r="D137" t="n">
-        <v>4.44</v>
+        <v>-4.4</v>
       </c>
       <c r="E137" t="n">
-        <v>0.2006768937290486</v>
+        <v>7.43367999824603</v>
       </c>
       <c r="F137" t="n">
-        <v>0.2539052582004353</v>
+        <v>4.555168495975869</v>
       </c>
       <c r="G137" t="n">
-        <v>0.3157894736842105</v>
+        <v>70.36842105263158</v>
       </c>
       <c r="H137" t="n">
-        <v>0.2368421052631579</v>
+        <v>75.67567567567568</v>
       </c>
       <c r="I137" t="n">
-        <v>0.8205128205128205</v>
+        <v>88.51282051282051</v>
       </c>
       <c r="J137" t="n">
-        <v>1.157894736842105</v>
+        <v>92.35135135135135</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>team_season_aggressive_actions_pg</t>
+          <t>team_season_obv_defensive_action_pg</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>78.90651147098515</v>
+        <v>0.2006114151898341</v>
       </c>
       <c r="C138" t="n">
-        <v>82.53893367051263</v>
+        <v>0.2096947286925289</v>
       </c>
       <c r="D138" t="n">
-        <v>-4.4</v>
+        <v>-4.33</v>
       </c>
       <c r="E138" t="n">
-        <v>7.43367999824603</v>
+        <v>0.08687455752124579</v>
       </c>
       <c r="F138" t="n">
-        <v>4.555168495975869</v>
+        <v>0.06372027125784488</v>
       </c>
       <c r="G138" t="n">
-        <v>70.36842105263158</v>
+        <v>0.06194178269881951</v>
       </c>
       <c r="H138" t="n">
-        <v>75.67567567567568</v>
+        <v>0.1010103955915248</v>
       </c>
       <c r="I138" t="n">
-        <v>88.51282051282051</v>
+        <v>0.2957363833959859</v>
       </c>
       <c r="J138" t="n">
-        <v>92.35135135135135</v>
+        <v>0.2873256607484576</v>
       </c>
     </row>
     <row r="139">
@@ -5145,31 +5145,31 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>17.11838077995072</v>
+        <v>17.11838123913349</v>
       </c>
       <c r="C139" t="n">
-        <v>17.83369257485935</v>
+        <v>17.8336928065947</v>
       </c>
       <c r="D139" t="n">
         <v>-4.01</v>
       </c>
       <c r="E139" t="n">
-        <v>0.5932333148424502</v>
+        <v>0.5932327266301545</v>
       </c>
       <c r="F139" t="n">
-        <v>0.798928108890784</v>
+        <v>0.7989285235401944</v>
       </c>
       <c r="G139" t="n">
-        <v>16.09604166666667</v>
+        <v>16.09604383680556</v>
       </c>
       <c r="H139" t="n">
-        <v>16.44118455127089</v>
+        <v>16.44118319115599</v>
       </c>
       <c r="I139" t="n">
-        <v>17.56857150501468</v>
+        <v>17.56857341609589</v>
       </c>
       <c r="J139" t="n">
-        <v>19.11638940286915</v>
+        <v>19.11639083059211</v>
       </c>
     </row>
     <row r="140">
@@ -5179,31 +5179,31 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>46.35505159508677</v>
+        <v>46.35504874983255</v>
       </c>
       <c r="C140" t="n">
-        <v>44.59178054690529</v>
+        <v>44.59178178796542</v>
       </c>
       <c r="D140" t="n">
         <v>3.95</v>
       </c>
       <c r="E140" t="n">
-        <v>1.650532002246139</v>
+        <v>1.650531006526862</v>
       </c>
       <c r="F140" t="n">
-        <v>1.401420899475177</v>
+        <v>1.401423216948548</v>
       </c>
       <c r="G140" t="n">
-        <v>44.32215611287177</v>
+        <v>44.32215230375427</v>
       </c>
       <c r="H140" t="n">
-        <v>42.03121990047089</v>
+        <v>42.03121321168664</v>
       </c>
       <c r="I140" t="n">
-        <v>48.24049602004717</v>
+        <v>48.24049233490566</v>
       </c>
       <c r="J140" t="n">
-        <v>47.1786007589488</v>
+        <v>47.17860783869506</v>
       </c>
     </row>
     <row r="141">
@@ -5447,69 +5447,69 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_xg_per_shot_conceded</t>
+          <t>team_season_free_kicks_conceded_pg</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.09577620264692199</v>
+        <v>15.78759784075576</v>
       </c>
       <c r="C148" t="n">
-        <v>0.09883626291051191</v>
+        <v>16.27218007481165</v>
       </c>
       <c r="D148" t="n">
-        <v>-3.1</v>
+        <v>-2.98</v>
       </c>
       <c r="E148" t="n">
-        <v>0.0124620514033729</v>
+        <v>1.79032706104763</v>
       </c>
       <c r="F148" t="n">
-        <v>0.01084817153307744</v>
+        <v>1.20887118865422</v>
       </c>
       <c r="G148" t="n">
-        <v>0.0833833305924027</v>
+        <v>13.2368421052632</v>
       </c>
       <c r="H148" t="n">
-        <v>0.0835756645285385</v>
+        <v>13.4054054054054</v>
       </c>
       <c r="I148" t="n">
-        <v>0.1128984867082748</v>
+        <v>18.2564102564103</v>
       </c>
       <c r="J148" t="n">
-        <v>0.1221415826252529</v>
+        <v>18.1351351351351</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>team_season_free_kicks_conceded_pg</t>
+          <t>team_season_xg_per_corner</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>15.78759784075576</v>
+        <v>0.03457483330675039</v>
       </c>
       <c r="C149" t="n">
-        <v>16.27218007481165</v>
+        <v>0.03553380516313157</v>
       </c>
       <c r="D149" t="n">
-        <v>-2.98</v>
+        <v>-2.7</v>
       </c>
       <c r="E149" t="n">
-        <v>1.79032706104763</v>
+        <v>0.004007175087056032</v>
       </c>
       <c r="F149" t="n">
-        <v>1.20887118865422</v>
+        <v>0.005874649308788689</v>
       </c>
       <c r="G149" t="n">
-        <v>13.2368421052632</v>
+        <v>0.02904414322416661</v>
       </c>
       <c r="H149" t="n">
-        <v>13.4054054054054</v>
+        <v>0.02726250345056707</v>
       </c>
       <c r="I149" t="n">
-        <v>18.2564102564103</v>
+        <v>0.04000922611781529</v>
       </c>
       <c r="J149" t="n">
-        <v>18.1351351351351</v>
+        <v>0.04727645776210687</v>
       </c>
     </row>
     <row r="150">
@@ -5583,273 +5583,273 @@
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>team_season_free_kicks_pg</t>
+          <t>team_season_direct_free_kick_xg_pg</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>15.91852226720648</v>
+        <v>0.02648815569429509</v>
       </c>
       <c r="C152" t="n">
-        <v>16.23910226015489</v>
+        <v>0.02702780017157446</v>
       </c>
       <c r="D152" t="n">
-        <v>-1.97</v>
+        <v>-2</v>
       </c>
       <c r="E152" t="n">
-        <v>1.729626712299624</v>
+        <v>0.009014055853842797</v>
       </c>
       <c r="F152" t="n">
-        <v>1.633402976167516</v>
+        <v>0.01201962366896106</v>
       </c>
       <c r="G152" t="n">
-        <v>13.39473684210526</v>
+        <v>0.01487736274047118</v>
       </c>
       <c r="H152" t="n">
-        <v>13.60526315789474</v>
+        <v>0.01150103707454707</v>
       </c>
       <c r="I152" t="n">
-        <v>17.84210526315789</v>
+        <v>0.03456449520607025</v>
       </c>
       <c r="J152" t="n">
-        <v>19.25</v>
+        <v>0.04969398063179609</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_shot_distance_conceded</t>
+          <t>team_season_free_kicks_pg</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>18.17022976758114</v>
+        <v>15.91852226720648</v>
       </c>
       <c r="C153" t="n">
-        <v>18.49542491362741</v>
+        <v>16.23910226015489</v>
       </c>
       <c r="D153" t="n">
-        <v>-1.76</v>
+        <v>-1.97</v>
       </c>
       <c r="E153" t="n">
-        <v>0.8782544813229758</v>
+        <v>1.729626712299624</v>
       </c>
       <c r="F153" t="n">
-        <v>0.6272834420065396</v>
+        <v>1.633402976167516</v>
       </c>
       <c r="G153" t="n">
-        <v>17.22821077215609</v>
+        <v>13.39473684210526</v>
       </c>
       <c r="H153" t="n">
-        <v>17.43815172267259</v>
+        <v>13.60526315789474</v>
       </c>
       <c r="I153" t="n">
-        <v>19.49929621190201</v>
+        <v>17.84210526315789</v>
       </c>
       <c r="J153" t="n">
-        <v>19.72539670739619</v>
+        <v>19.25</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>team_season_pressure_regains_pg</t>
+          <t>team_season_op_shot_distance_conceded</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>27.37837381916329</v>
+        <v>18.17327509805117</v>
       </c>
       <c r="C154" t="n">
-        <v>26.91869501080027</v>
+        <v>18.49500296224831</v>
       </c>
       <c r="D154" t="n">
-        <v>1.71</v>
+        <v>-1.74</v>
       </c>
       <c r="E154" t="n">
-        <v>2.515270122355035</v>
+        <v>0.8766507518194657</v>
       </c>
       <c r="F154" t="n">
-        <v>1.980498293833843</v>
+        <v>0.6274319671060298</v>
       </c>
       <c r="G154" t="n">
-        <v>24.47368421052632</v>
+        <v>17.22820689690807</v>
       </c>
       <c r="H154" t="n">
-        <v>23.43243243243243</v>
+        <v>17.43815376569038</v>
       </c>
       <c r="I154" t="n">
-        <v>31.35897435897436</v>
+        <v>19.4992992259838</v>
       </c>
       <c r="J154" t="n">
-        <v>30.62162162162162</v>
+        <v>19.72540008650519</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_shot_distance</t>
+          <t>team_season_pressure_regains_pg</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>15.62229893695309</v>
+        <v>27.37837381916329</v>
       </c>
       <c r="C155" t="n">
-        <v>15.3689486869132</v>
+        <v>26.91869501080027</v>
       </c>
       <c r="D155" t="n">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="E155" t="n">
-        <v>0.9454627196423321</v>
+        <v>2.515270122355035</v>
       </c>
       <c r="F155" t="n">
-        <v>0.8294184478258065</v>
+        <v>1.980498293833843</v>
       </c>
       <c r="G155" t="n">
-        <v>13.94907332710598</v>
+        <v>24.47368421052632</v>
       </c>
       <c r="H155" t="n">
-        <v>14.32561942858574</v>
+        <v>23.43243243243243</v>
       </c>
       <c r="I155" t="n">
-        <v>16.27027107007576</v>
+        <v>31.35897435897436</v>
       </c>
       <c r="J155" t="n">
-        <v>17.34675250137061</v>
+        <v>30.62162162162162</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>team_season_pressures_pg</t>
+          <t>team_season_sp_shot_distance</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>135.5735964912281</v>
+        <v>15.61458176542862</v>
       </c>
       <c r="C156" t="n">
-        <v>137.6535351140614</v>
+        <v>15.37079256574743</v>
       </c>
       <c r="D156" t="n">
-        <v>-1.51</v>
+        <v>1.59</v>
       </c>
       <c r="E156" t="n">
-        <v>13.93219151224779</v>
+        <v>0.9389846469570768</v>
       </c>
       <c r="F156" t="n">
-        <v>7.571228628768911</v>
+        <v>0.8341463993196065</v>
       </c>
       <c r="G156" t="n">
-        <v>123.7368421052632</v>
+        <v>13.94907651154891</v>
       </c>
       <c r="H156" t="n">
-        <v>126.3243243243243</v>
+        <v>14.32561942858574</v>
       </c>
       <c r="I156" t="n">
-        <v>156.6666666666667</v>
+        <v>16.23167827111164</v>
       </c>
       <c r="J156" t="n">
-        <v>152.1891891891892</v>
+        <v>17.37441087805707</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kicks_conceded_pg</t>
+          <t>team_season_pressures_pg</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.5708434547908232</v>
+        <v>135.5735964912281</v>
       </c>
       <c r="C157" t="n">
-        <v>0.5626126126126128</v>
+        <v>137.6535351140614</v>
       </c>
       <c r="D157" t="n">
-        <v>1.46</v>
+        <v>-1.51</v>
       </c>
       <c r="E157" t="n">
-        <v>0.0845558792782635</v>
+        <v>13.93219151224779</v>
       </c>
       <c r="F157" t="n">
-        <v>0.1441492687303095</v>
+        <v>7.571228628768911</v>
       </c>
       <c r="G157" t="n">
-        <v>0.475</v>
+        <v>123.7368421052632</v>
       </c>
       <c r="H157" t="n">
-        <v>0.368421052631579</v>
+        <v>126.3243243243243</v>
       </c>
       <c r="I157" t="n">
-        <v>0.684210526315789</v>
+        <v>156.6666666666667</v>
       </c>
       <c r="J157" t="n">
-        <v>0.783783783783784</v>
+        <v>152.1891891891892</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_shot_distance_conceded</t>
+          <t>team_season_direct_free_kicks_conceded_pg</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>15.63739926285487</v>
+        <v>0.5708434547908232</v>
       </c>
       <c r="C158" t="n">
-        <v>15.43191850142867</v>
+        <v>0.5626126126126128</v>
       </c>
       <c r="D158" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="E158" t="n">
-        <v>0.8368808877858069</v>
+        <v>0.0845558792782635</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9994027673106737</v>
+        <v>0.1441492687303095</v>
       </c>
       <c r="G158" t="n">
-        <v>14.43327863826308</v>
+        <v>0.475</v>
       </c>
       <c r="H158" t="n">
-        <v>13.5494968580163</v>
+        <v>0.368421052631579</v>
       </c>
       <c r="I158" t="n">
-        <v>16.41676050302934</v>
+        <v>0.684210526315789</v>
       </c>
       <c r="J158" t="n">
-        <v>17.01629729769123</v>
+        <v>0.783783783783784</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kick_xg_pg</t>
+          <t>team_season_sp_shot_distance_conceded</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.03265112686840699</v>
+        <v>15.6211817499231</v>
       </c>
       <c r="C159" t="n">
-        <v>0.03301752380643343</v>
+        <v>15.43398854212646</v>
       </c>
       <c r="D159" t="n">
-        <v>-1.11</v>
+        <v>1.21</v>
       </c>
       <c r="E159" t="n">
-        <v>0.01061644797985438</v>
+        <v>0.8663177173575028</v>
       </c>
       <c r="F159" t="n">
-        <v>0.01525069677566587</v>
+        <v>1.002058015584261</v>
       </c>
       <c r="G159" t="n">
-        <v>0.01656857147616776</v>
+        <v>14.35218721277574</v>
       </c>
       <c r="H159" t="n">
-        <v>0.01401845483403457</v>
+        <v>13.54949862715127</v>
       </c>
       <c r="I159" t="n">
-        <v>0.04429725001160151</v>
+        <v>16.41676050302934</v>
       </c>
       <c r="J159" t="n">
-        <v>0.05655650623344086</v>
+        <v>17.01629547574627</v>
       </c>
     </row>
     <row r="160">
@@ -5859,235 +5859,235 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>17.4424110696646</v>
+        <v>17.44240997912327</v>
       </c>
       <c r="C160" t="n">
-        <v>17.63425782196875</v>
+        <v>17.63425830700107</v>
       </c>
       <c r="D160" t="n">
         <v>-1.09</v>
       </c>
       <c r="E160" t="n">
-        <v>0.8053471791492659</v>
+        <v>0.8053475032115357</v>
       </c>
       <c r="F160" t="n">
-        <v>0.516532561604818</v>
+        <v>0.5165318736457869</v>
       </c>
       <c r="G160" t="n">
-        <v>16.49477927660035</v>
+        <v>16.49477589749135</v>
       </c>
       <c r="H160" t="n">
-        <v>16.80009877873563</v>
+        <v>16.80010214619253</v>
       </c>
       <c r="I160" t="n">
         <v>18.5243630004085</v>
       </c>
       <c r="J160" t="n">
-        <v>18.33840590797811</v>
+        <v>18.33840478290611</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>team_season_ball_in_play_time</t>
+          <t>team_season_np_xg_per_shot_conceded</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>51.8692416</v>
+        <v>0.0941798731457614</v>
       </c>
       <c r="C161" t="n">
-        <v>51.3419516</v>
+        <v>0.09522252266232083</v>
       </c>
       <c r="D161" t="n">
-        <v>1.03</v>
+        <v>-1.09</v>
       </c>
       <c r="E161" t="n">
-        <v>2.549472533390936</v>
+        <v>0.01291592455749746</v>
       </c>
       <c r="F161" t="n">
-        <v>1.211210209106566</v>
+        <v>0.0107013336536827</v>
       </c>
       <c r="G161" t="n">
-        <v>48.578514</v>
+        <v>0.08052593222890285</v>
       </c>
       <c r="H161" t="n">
-        <v>49.786034</v>
+        <v>0.08142608431627124</v>
       </c>
       <c r="I161" t="n">
-        <v>55.576004</v>
+        <v>0.1107401204356685</v>
       </c>
       <c r="J161" t="n">
-        <v>53.9282</v>
+        <v>0.1208572472844805</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>team_season_yellow_cards_pg</t>
+          <t>team_season_ball_in_play_time</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>1.868684210526316</v>
+        <v>51.8692416</v>
       </c>
       <c r="C162" t="n">
-        <v>1.887771982508825</v>
+        <v>51.3419516</v>
       </c>
       <c r="D162" t="n">
-        <v>-1.01</v>
+        <v>1.03</v>
       </c>
       <c r="E162" t="n">
-        <v>0.3148016347671622</v>
+        <v>2.549472533390936</v>
       </c>
       <c r="F162" t="n">
-        <v>0.2085971789298384</v>
+        <v>1.211210209106566</v>
       </c>
       <c r="G162" t="n">
-        <v>1.31578947368421</v>
+        <v>48.578514</v>
       </c>
       <c r="H162" t="n">
-        <v>1.605263157894737</v>
+        <v>49.786034</v>
       </c>
       <c r="I162" t="n">
-        <v>2.105263157894737</v>
+        <v>55.576004</v>
       </c>
       <c r="J162" t="n">
-        <v>2.243243243243243</v>
+        <v>53.9282</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kick_shot_ratio</t>
+          <t>team_season_yellow_cards_pg</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>1.090101010101012</v>
+        <v>1.868684210526316</v>
       </c>
       <c r="C163" t="n">
-        <v>1.080096108173987</v>
+        <v>1.887771982508825</v>
       </c>
       <c r="D163" t="n">
-        <v>0.93</v>
+        <v>-1.01</v>
       </c>
       <c r="E163" t="n">
-        <v>0.03579379550071831</v>
+        <v>0.3148016347671622</v>
       </c>
       <c r="F163" t="n">
-        <v>0.05564022069720818</v>
+        <v>0.2085971789298384</v>
       </c>
       <c r="G163" t="n">
-        <v>1.04545454545455</v>
+        <v>1.31578947368421</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>1.605263157894737</v>
       </c>
       <c r="I163" t="n">
-        <v>1.13636363636364</v>
+        <v>2.105263157894737</v>
       </c>
       <c r="J163" t="n">
-        <v>1.2</v>
+        <v>2.243243243243243</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>team_season_possessions</t>
+          <t>team_season_direct_free_kick_shot_ratio</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>195.2752226720648</v>
+        <v>1.090101010101012</v>
       </c>
       <c r="C164" t="n">
-        <v>196.9328618091776</v>
+        <v>1.080096108173987</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.84</v>
+        <v>0.93</v>
       </c>
       <c r="E164" t="n">
-        <v>4.183657706420048</v>
+        <v>0.03579379550071831</v>
       </c>
       <c r="F164" t="n">
-        <v>4.457148945472436</v>
+        <v>0.05564022069720818</v>
       </c>
       <c r="G164" t="n">
-        <v>191.7</v>
+        <v>1.04545454545455</v>
       </c>
       <c r="H164" t="n">
-        <v>189.0526315789474</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
-        <v>202.3076923076923</v>
+        <v>1.13636363636364</v>
       </c>
       <c r="J164" t="n">
-        <v>205.6216216216216</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>team_season_box_cross_ratio</t>
+          <t>team_season_possessions</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.3371845685760699</v>
+        <v>195.2752226720648</v>
       </c>
       <c r="C165" t="n">
-        <v>0.339893431597488</v>
+        <v>196.9328618091776</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.8</v>
+        <v>-0.84</v>
       </c>
       <c r="E165" t="n">
-        <v>0.006135659621710037</v>
+        <v>4.183657706420048</v>
       </c>
       <c r="F165" t="n">
-        <v>0.02900778179920065</v>
+        <v>4.457148945472436</v>
       </c>
       <c r="G165" t="n">
-        <v>0.3304093567251462</v>
+        <v>191.7</v>
       </c>
       <c r="H165" t="n">
-        <v>0.303370786516854</v>
+        <v>189.0526315789474</v>
       </c>
       <c r="I165" t="n">
-        <v>0.3426073131955485</v>
+        <v>202.3076923076923</v>
       </c>
       <c r="J165" t="n">
-        <v>0.4084507042253521</v>
+        <v>205.6216216216216</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_corner</t>
+          <t>team_season_box_cross_ratio</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.03393778966706019</v>
+        <v>0.3371845685760699</v>
       </c>
       <c r="C166" t="n">
-        <v>0.0341935198869484</v>
+        <v>0.339893431597488</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.75</v>
+        <v>-0.8</v>
       </c>
       <c r="E166" t="n">
-        <v>0.003558683421350847</v>
+        <v>0.006135659621710037</v>
       </c>
       <c r="F166" t="n">
-        <v>0.005617921645369246</v>
+        <v>0.02900778179920065</v>
       </c>
       <c r="G166" t="n">
-        <v>0.02927555202764306</v>
+        <v>0.3304093567251462</v>
       </c>
       <c r="H166" t="n">
-        <v>0.02715274305904613</v>
+        <v>0.303370786516854</v>
       </c>
       <c r="I166" t="n">
-        <v>0.03815386030409071</v>
+        <v>0.3426073131955485</v>
       </c>
       <c r="J166" t="n">
-        <v>0.04385710007105118</v>
+        <v>0.4084507042253521</v>
       </c>
     </row>
     <row r="167">
@@ -6233,31 +6233,31 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.8730059202238657</v>
+        <v>0.8729960451105739</v>
       </c>
       <c r="C171" t="n">
-        <v>0.8678612041538561</v>
+        <v>0.8678414887296337</v>
       </c>
       <c r="D171" t="n">
         <v>0.59</v>
       </c>
       <c r="E171" t="n">
-        <v>0.01316013585403126</v>
+        <v>0.01316039121084219</v>
       </c>
       <c r="F171" t="n">
-        <v>0.0165761376687315</v>
+        <v>0.01655787134265762</v>
       </c>
       <c r="G171" t="n">
-        <v>0.8557290532907631</v>
+        <v>0.8557290532907633</v>
       </c>
       <c r="H171" t="n">
-        <v>0.8397727001213057</v>
+        <v>0.8397727736970804</v>
       </c>
       <c r="I171" t="n">
-        <v>0.8902093613321775</v>
+        <v>0.8902094494316463</v>
       </c>
       <c r="J171" t="n">
-        <v>0.8880253296141603</v>
+        <v>0.8880253933078052</v>
       </c>
     </row>
     <row r="172">
